--- a/estacoes.xlsx
+++ b/estacoes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ufscbr-my.sharepoint.com/personal/joao_tolentino_ufsc_br/Documents/GitLab/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ufscbr-my.sharepoint.com/personal/joao_tolentino_ufsc_br/Documents/GitLab/boletim_inmet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B0A3EF54-74A4-4B64-A1C7-0D8C8771194F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:40009_{B0A3EF54-74A4-4B64-A1C7-0D8C8771194F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7ED30D11-8A8C-4BC2-93AA-C670919B6441}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CatalogoEstaçõesAutomáticas" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CatalogoEstaçõesAutomáticas!$A$1:$H$572</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SC!$A$1:$H$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -3560,7 +3561,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4395,7 +4396,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H572"/>
   <sheetViews>
@@ -19288,7 +19289,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H572">
+  <autoFilter ref="A1:H572" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="1">
       <filters>
         <filter val="SC"/>
@@ -19303,11 +19304,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19947,6 +19948,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H1" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H24">
+      <sortCondition ref="G1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/estacoes.xlsx
+++ b/estacoes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ufscbr-my.sharepoint.com/personal/joao_tolentino_ufsc_br/Documents/GitLab/boletim_inmet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:40009_{B0A3EF54-74A4-4B64-A1C7-0D8C8771194F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7ED30D11-8A8C-4BC2-93AA-C670919B6441}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:40009_{B0A3EF54-74A4-4B64-A1C7-0D8C8771194F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4772EE9-4178-46DF-8EE9-07207502F84F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CatalogoEstaçõesAutomáticas" sheetId="1" r:id="rId1"/>
@@ -4400,8 +4400,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H572"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H570"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="D489" sqref="D489"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4676,7 +4676,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -5352,7 +5352,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>428</v>
       </c>
@@ -5612,7 +5612,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>123</v>
       </c>
@@ -6184,7 +6184,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>167</v>
       </c>
@@ -6288,7 +6288,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>504</v>
       </c>
@@ -6704,7 +6704,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>538</v>
       </c>
@@ -6730,7 +6730,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>210</v>
       </c>
@@ -6912,7 +6912,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>224</v>
       </c>
@@ -6964,7 +6964,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>228</v>
       </c>
@@ -7120,7 +7120,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>241</v>
       </c>
@@ -7354,7 +7354,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>176</v>
       </c>
@@ -7406,7 +7406,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>263</v>
       </c>
@@ -7432,7 +7432,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>265</v>
       </c>
@@ -7484,7 +7484,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>269</v>
       </c>
@@ -8030,7 +8030,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>587</v>
       </c>
@@ -8602,7 +8602,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>355</v>
       </c>
@@ -8758,7 +8758,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>368</v>
       </c>
@@ -8914,7 +8914,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>557</v>
       </c>
@@ -9018,7 +9018,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>388</v>
       </c>
@@ -9226,7 +9226,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>404</v>
       </c>
@@ -9278,7 +9278,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>408</v>
       </c>
@@ -9538,7 +9538,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>907</v>
       </c>
@@ -9720,7 +9720,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>442</v>
       </c>
@@ -10292,7 +10292,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="227" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>486</v>
       </c>
@@ -10526,7 +10526,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>1017</v>
       </c>
@@ -10968,7 +10968,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>1171</v>
       </c>
@@ -11202,7 +11202,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>208</v>
       </c>
@@ -11332,7 +11332,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>567</v>
       </c>
@@ -11592,7 +11592,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>911</v>
       </c>
@@ -11852,7 +11852,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>995</v>
       </c>
@@ -11904,7 +11904,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>611</v>
       </c>
@@ -12086,7 +12086,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>1140</v>
       </c>
@@ -12268,7 +12268,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>380</v>
       </c>
@@ -13126,7 +13126,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>705</v>
       </c>
@@ -13464,7 +13464,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>625</v>
       </c>
@@ -13776,7 +13776,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>755</v>
       </c>
@@ -14192,7 +14192,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="377" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>787</v>
       </c>
@@ -14868,7 +14868,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="403" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>839</v>
       </c>
@@ -15258,7 +15258,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="418" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>869</v>
       </c>
@@ -15388,7 +15388,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>731</v>
       </c>
@@ -15752,7 +15752,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>98</v>
       </c>
@@ -15778,7 +15778,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="438" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>909</v>
       </c>
@@ -15804,7 +15804,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>639</v>
       </c>
@@ -15830,7 +15830,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="440" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>913</v>
       </c>
@@ -16324,7 +16324,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="459" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>951</v>
       </c>
@@ -16428,7 +16428,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="463" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>959</v>
       </c>
@@ -16532,7 +16532,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="467" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>967</v>
       </c>
@@ -16584,7 +16584,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="469" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>971</v>
       </c>
@@ -16636,7 +16636,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="471" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>975</v>
       </c>
@@ -16662,7 +16662,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="472" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>977</v>
       </c>
@@ -16766,7 +16766,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="476" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>985</v>
       </c>
@@ -16896,7 +16896,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>607</v>
       </c>
@@ -16948,7 +16948,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="483" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>999</v>
       </c>
@@ -17052,7 +17052,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="487" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>1007</v>
       </c>
@@ -17182,7 +17182,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>879</v>
       </c>
@@ -17416,7 +17416,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="501" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>1034</v>
       </c>
@@ -17520,7 +17520,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="505" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>1042</v>
       </c>
@@ -17884,7 +17884,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="519" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>1070</v>
       </c>
@@ -18040,7 +18040,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="525" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>1082</v>
       </c>
@@ -18222,7 +18222,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="532" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>1096</v>
       </c>
@@ -18326,7 +18326,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="536" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>1104</v>
       </c>
@@ -18352,7 +18352,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="537" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>1106</v>
       </c>
@@ -18534,7 +18534,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="544" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>1120</v>
       </c>
@@ -18768,7 +18768,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="553" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>1138</v>
       </c>
@@ -18794,7 +18794,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>259</v>
       </c>
@@ -18820,7 +18820,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="555" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>1142</v>
       </c>
@@ -19210,7 +19210,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="570" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>311</v>
       </c>
@@ -19292,11 +19292,11 @@
   <autoFilter ref="A1:H572" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="1">
       <filters>
-        <filter val="SC"/>
+        <filter val="RS"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A37:H570">
-      <sortCondition ref="G1:G572"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A102:H562">
+      <sortCondition ref="A1:A572"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -19307,7 +19307,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -19351,7 +19351,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>428</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
         <v>99</v>
@@ -19360,50 +19360,50 @@
         <v>17</v>
       </c>
       <c r="D2">
-        <v>-27.602530000000002</v>
+        <v>-28.931353000000001</v>
       </c>
       <c r="E2">
-        <v>-48.620095999999997</v>
+        <v>-49.497920000000001</v>
       </c>
       <c r="F2">
-        <v>4.87</v>
+        <v>2</v>
       </c>
       <c r="G2" s="1">
-        <v>37642</v>
+        <v>39718</v>
       </c>
       <c r="H2" t="s">
-        <v>429</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>504</v>
+        <v>176</v>
       </c>
       <c r="B3" t="s">
         <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D3">
-        <v>-26.913611110000002</v>
+        <v>-28.126944430000002</v>
       </c>
       <c r="E3">
-        <v>-49.268055539999999</v>
+        <v>-49.479722209999998</v>
       </c>
       <c r="F3">
-        <v>72.239999999999995</v>
+        <v>1790.38</v>
       </c>
       <c r="G3" s="1">
-        <v>38899</v>
+        <v>39249</v>
       </c>
       <c r="H3" t="s">
-        <v>505</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>538</v>
+        <v>208</v>
       </c>
       <c r="B4" t="s">
         <v>99</v>
@@ -19412,24 +19412,24 @@
         <v>17</v>
       </c>
       <c r="D4">
-        <v>-26.081388879999999</v>
+        <v>-26.819156</v>
       </c>
       <c r="E4">
-        <v>-48.641666659999999</v>
+        <v>-50.985520000000001</v>
       </c>
       <c r="F4">
-        <v>6.18</v>
+        <v>944.26</v>
       </c>
       <c r="G4" s="1">
-        <v>39238</v>
+        <v>39525</v>
       </c>
       <c r="H4" t="s">
-        <v>539</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>176</v>
+        <v>259</v>
       </c>
       <c r="B5" t="s">
         <v>99</v>
@@ -19438,24 +19438,24 @@
         <v>17</v>
       </c>
       <c r="D5">
-        <v>-28.126944430000002</v>
+        <v>-27.388611099999999</v>
       </c>
       <c r="E5">
-        <v>-49.479722209999998</v>
+        <v>-51.215833330000002</v>
       </c>
       <c r="F5">
-        <v>1790.38</v>
+        <v>963</v>
       </c>
       <c r="G5" s="1">
-        <v>39249</v>
+        <v>43510</v>
       </c>
       <c r="H5" t="s">
-        <v>177</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>587</v>
+        <v>311</v>
       </c>
       <c r="B6" t="s">
         <v>99</v>
@@ -19464,19 +19464,19 @@
         <v>17</v>
       </c>
       <c r="D6">
-        <v>-27.169166659999998</v>
+        <v>-27.085311099999998</v>
       </c>
       <c r="E6">
-        <v>-51.558888879999998</v>
+        <v>-52.635711100000002</v>
       </c>
       <c r="F6">
-        <v>767.63</v>
+        <v>679</v>
       </c>
       <c r="G6" s="1">
-        <v>39344</v>
+        <v>43514</v>
       </c>
       <c r="H6" t="s">
-        <v>588</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -19507,7 +19507,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>557</v>
+        <v>380</v>
       </c>
       <c r="B8" t="s">
         <v>99</v>
@@ -19516,24 +19516,24 @@
         <v>17</v>
       </c>
       <c r="D8">
-        <v>-27.418333319999999</v>
+        <v>-26.286562</v>
       </c>
       <c r="E8">
-        <v>-49.646944439999999</v>
+        <v>-53.633113999999999</v>
       </c>
       <c r="F8">
-        <v>479.79</v>
+        <v>807.54</v>
       </c>
       <c r="G8" s="1">
-        <v>39510</v>
+        <v>39598</v>
       </c>
       <c r="H8" t="s">
-        <v>558</v>
+        <v>381</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>907</v>
+        <v>428</v>
       </c>
       <c r="B9" t="s">
         <v>99</v>
@@ -19542,50 +19542,50 @@
         <v>17</v>
       </c>
       <c r="D9">
-        <v>-26.937499989999999</v>
+        <v>-27.602530000000002</v>
       </c>
       <c r="E9">
-        <v>-50.145555549999997</v>
+        <v>-48.620095999999997</v>
       </c>
       <c r="F9">
-        <v>591.66999999999996</v>
+        <v>4.87</v>
       </c>
       <c r="G9" s="1">
-        <v>39516</v>
+        <v>37642</v>
       </c>
       <c r="H9" t="s">
-        <v>908</v>
+        <v>429</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>1017</v>
+        <v>504</v>
       </c>
       <c r="B10" t="s">
         <v>99</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D10">
-        <v>-26.786111099999999</v>
+        <v>-26.913611110000002</v>
       </c>
       <c r="E10">
-        <v>-53.513888880000003</v>
+        <v>-49.268055539999999</v>
       </c>
       <c r="F10">
-        <v>645</v>
+        <v>72.239999999999995</v>
       </c>
       <c r="G10" s="1">
-        <v>39518</v>
+        <v>38899</v>
       </c>
       <c r="H10" t="s">
-        <v>1018</v>
+        <v>505</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>1171</v>
+        <v>538</v>
       </c>
       <c r="B11" t="s">
         <v>99</v>
@@ -19594,24 +19594,24 @@
         <v>17</v>
       </c>
       <c r="D11">
-        <v>-26.938666000000001</v>
+        <v>-26.081388879999999</v>
       </c>
       <c r="E11">
-        <v>-52.398090000000003</v>
+        <v>-48.641666659999999</v>
       </c>
       <c r="F11">
-        <v>878.74</v>
+        <v>6.18</v>
       </c>
       <c r="G11" s="1">
-        <v>39521</v>
+        <v>39238</v>
       </c>
       <c r="H11" t="s">
-        <v>1172</v>
+        <v>539</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>208</v>
+        <v>557</v>
       </c>
       <c r="B12" t="s">
         <v>99</v>
@@ -19620,24 +19620,24 @@
         <v>17</v>
       </c>
       <c r="D12">
-        <v>-26.819156</v>
+        <v>-27.418333319999999</v>
       </c>
       <c r="E12">
-        <v>-50.985520000000001</v>
+        <v>-49.646944439999999</v>
       </c>
       <c r="F12">
-        <v>944.26</v>
+        <v>479.79</v>
       </c>
       <c r="G12" s="1">
-        <v>39525</v>
+        <v>39510</v>
       </c>
       <c r="H12" t="s">
-        <v>209</v>
+        <v>558</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>911</v>
+        <v>587</v>
       </c>
       <c r="B13" t="s">
         <v>99</v>
@@ -19646,24 +19646,24 @@
         <v>17</v>
       </c>
       <c r="D13">
-        <v>-26.248611100000002</v>
+        <v>-27.169166659999998</v>
       </c>
       <c r="E13">
-        <v>-49.574166660000003</v>
+        <v>-51.558888879999998</v>
       </c>
       <c r="F13">
-        <v>800</v>
+        <v>767.63</v>
       </c>
       <c r="G13" s="1">
-        <v>39528</v>
+        <v>39344</v>
       </c>
       <c r="H13" t="s">
-        <v>912</v>
+        <v>588</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>995</v>
+        <v>607</v>
       </c>
       <c r="B14" t="s">
         <v>99</v>
@@ -19672,50 +19672,50 @@
         <v>17</v>
       </c>
       <c r="D14">
-        <v>-28.275639999999999</v>
+        <v>-27.802222220000001</v>
       </c>
       <c r="E14">
-        <v>-49.934617000000003</v>
+        <v>-50.335555550000002</v>
       </c>
       <c r="F14">
-        <v>1400.06</v>
+        <v>952.7</v>
       </c>
       <c r="G14" s="1">
-        <v>39549</v>
+        <v>41948</v>
       </c>
       <c r="H14" t="s">
-        <v>996</v>
+        <v>608</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>1140</v>
+        <v>625</v>
       </c>
       <c r="B15" t="s">
         <v>99</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>-28.532499990000002</v>
+        <v>-28.604444440000002</v>
       </c>
       <c r="E15">
-        <v>-49.315277770000002</v>
+        <v>-48.813333329999999</v>
       </c>
       <c r="F15">
-        <v>40.56</v>
+        <v>34.36</v>
       </c>
       <c r="G15" s="1">
-        <v>39596</v>
+        <v>39599</v>
       </c>
       <c r="H15" t="s">
-        <v>1141</v>
+        <v>626</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>380</v>
+        <v>639</v>
       </c>
       <c r="B16" t="s">
         <v>99</v>
@@ -19724,24 +19724,24 @@
         <v>17</v>
       </c>
       <c r="D16">
-        <v>-26.286562</v>
+        <v>-26.393611100000001</v>
       </c>
       <c r="E16">
-        <v>-53.633113999999999</v>
+        <v>-50.363333330000003</v>
       </c>
       <c r="F16">
-        <v>807.54</v>
+        <v>799.58</v>
       </c>
       <c r="G16" s="1">
-        <v>39598</v>
+        <v>39852</v>
       </c>
       <c r="H16" t="s">
-        <v>381</v>
+        <v>640</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>625</v>
+        <v>731</v>
       </c>
       <c r="B17" t="s">
         <v>99</v>
@@ -19750,50 +19750,50 @@
         <v>10</v>
       </c>
       <c r="D17">
-        <v>-28.604444440000002</v>
+        <v>-26.406388880000002</v>
       </c>
       <c r="E17">
-        <v>-48.813333329999999</v>
+        <v>-52.850277769999998</v>
       </c>
       <c r="F17">
-        <v>34.36</v>
+        <v>943.57</v>
       </c>
       <c r="G17" s="1">
-        <v>39599</v>
+        <v>39710</v>
       </c>
       <c r="H17" t="s">
-        <v>626</v>
+        <v>732</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>731</v>
+        <v>879</v>
       </c>
       <c r="B18" t="s">
         <v>99</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D18">
-        <v>-26.406388880000002</v>
+        <v>-27.678611100000001</v>
       </c>
       <c r="E18">
-        <v>-52.850277769999998</v>
+        <v>-49.041944440000002</v>
       </c>
       <c r="F18">
-        <v>943.57</v>
+        <v>881</v>
       </c>
       <c r="G18" s="1">
-        <v>39710</v>
+        <v>42520</v>
       </c>
       <c r="H18" t="s">
-        <v>732</v>
+        <v>880</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>98</v>
+        <v>907</v>
       </c>
       <c r="B19" t="s">
         <v>99</v>
@@ -19802,24 +19802,24 @@
         <v>17</v>
       </c>
       <c r="D19">
-        <v>-28.931353000000001</v>
+        <v>-26.937499989999999</v>
       </c>
       <c r="E19">
-        <v>-49.497920000000001</v>
+        <v>-50.145555549999997</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>591.66999999999996</v>
       </c>
       <c r="G19" s="1">
-        <v>39718</v>
+        <v>39516</v>
       </c>
       <c r="H19" t="s">
-        <v>100</v>
+        <v>908</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>639</v>
+        <v>911</v>
       </c>
       <c r="B20" t="s">
         <v>99</v>
@@ -19828,24 +19828,24 @@
         <v>17</v>
       </c>
       <c r="D20">
-        <v>-26.393611100000001</v>
+        <v>-26.248611100000002</v>
       </c>
       <c r="E20">
-        <v>-50.363333330000003</v>
+        <v>-49.574166660000003</v>
       </c>
       <c r="F20">
-        <v>799.58</v>
+        <v>800</v>
       </c>
       <c r="G20" s="1">
-        <v>39852</v>
+        <v>39528</v>
       </c>
       <c r="H20" t="s">
-        <v>640</v>
+        <v>912</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>607</v>
+        <v>995</v>
       </c>
       <c r="B21" t="s">
         <v>99</v>
@@ -19854,24 +19854,24 @@
         <v>17</v>
       </c>
       <c r="D21">
-        <v>-27.802222220000001</v>
+        <v>-28.275639999999999</v>
       </c>
       <c r="E21">
-        <v>-50.335555550000002</v>
+        <v>-49.934617000000003</v>
       </c>
       <c r="F21">
-        <v>952.7</v>
+        <v>1400.06</v>
       </c>
       <c r="G21" s="1">
-        <v>41948</v>
+        <v>39549</v>
       </c>
       <c r="H21" t="s">
-        <v>608</v>
+        <v>996</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>879</v>
+        <v>1017</v>
       </c>
       <c r="B22" t="s">
         <v>99</v>
@@ -19880,24 +19880,24 @@
         <v>17</v>
       </c>
       <c r="D22">
-        <v>-27.678611100000001</v>
+        <v>-26.786111099999999</v>
       </c>
       <c r="E22">
-        <v>-49.041944440000002</v>
+        <v>-53.513888880000003</v>
       </c>
       <c r="F22">
-        <v>881</v>
+        <v>645</v>
       </c>
       <c r="G22" s="1">
-        <v>42520</v>
+        <v>39518</v>
       </c>
       <c r="H22" t="s">
-        <v>880</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>259</v>
+        <v>1140</v>
       </c>
       <c r="B23" t="s">
         <v>99</v>
@@ -19906,24 +19906,24 @@
         <v>17</v>
       </c>
       <c r="D23">
-        <v>-27.388611099999999</v>
+        <v>-28.532499990000002</v>
       </c>
       <c r="E23">
-        <v>-51.215833330000002</v>
+        <v>-49.315277770000002</v>
       </c>
       <c r="F23">
-        <v>963</v>
+        <v>40.56</v>
       </c>
       <c r="G23" s="1">
-        <v>43510</v>
+        <v>39596</v>
       </c>
       <c r="H23" t="s">
-        <v>260</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>311</v>
+        <v>1171</v>
       </c>
       <c r="B24" t="s">
         <v>99</v>
@@ -19932,25 +19932,25 @@
         <v>17</v>
       </c>
       <c r="D24">
-        <v>-27.085311099999998</v>
+        <v>-26.938666000000001</v>
       </c>
       <c r="E24">
-        <v>-52.635711100000002</v>
+        <v>-52.398090000000003</v>
       </c>
       <c r="F24">
-        <v>679</v>
+        <v>878.74</v>
       </c>
       <c r="G24" s="1">
-        <v>43514</v>
+        <v>39521</v>
       </c>
       <c r="H24" t="s">
-        <v>312</v>
+        <v>1172</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{00000000-0001-0000-0100-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H24">
-      <sortCondition ref="G1"/>
+      <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/estacoes.xlsx
+++ b/estacoes.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ufscbr-my.sharepoint.com/personal/joao_tolentino_ufsc_br/Documents/GitLab/boletim_inmet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\devgit\boletim_inmet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:40009_{B0A3EF54-74A4-4B64-A1C7-0D8C8771194F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4772EE9-4178-46DF-8EE9-07207502F84F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
-    <sheet name="CatalogoEstaçõesAutomáticas" sheetId="1" r:id="rId1"/>
+    <sheet name="Catalogo" sheetId="1" r:id="rId1"/>
     <sheet name="SC" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CatalogoEstaçõesAutomáticas!$A$1:$H$572</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Catalogo!$A$1:$H$572</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SC!$A$1:$H$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -3561,7 +3560,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4073,10 +4072,10 @@
     <cellStyle name="Ênfase5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Ênfase6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Incorreto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Neutra" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Ruim" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texto de Aviso" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto Explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
@@ -4396,27 +4395,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H572"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D489" sqref="D489"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4442,7 +4441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -4468,7 +4467,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -4494,7 +4493,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -4520,7 +4519,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -4546,7 +4545,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -4572,7 +4571,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -4598,7 +4597,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -4624,7 +4623,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -4650,7 +4649,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -4676,7 +4675,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -4702,7 +4701,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -4728,7 +4727,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -4754,7 +4753,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -4780,7 +4779,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -4806,7 +4805,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -4832,7 +4831,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -4858,7 +4857,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -4884,7 +4883,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -4910,7 +4909,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -4936,7 +4935,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>60</v>
       </c>
@@ -4962,7 +4961,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>63</v>
       </c>
@@ -4988,7 +4987,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -5014,7 +5013,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>67</v>
       </c>
@@ -5040,7 +5039,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>69</v>
       </c>
@@ -5066,7 +5065,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>72</v>
       </c>
@@ -5092,7 +5091,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>74</v>
       </c>
@@ -5118,7 +5117,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -5144,7 +5143,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>80</v>
       </c>
@@ -5170,7 +5169,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>82</v>
       </c>
@@ -5196,7 +5195,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>85</v>
       </c>
@@ -5222,7 +5221,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>87</v>
       </c>
@@ -5248,7 +5247,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>89</v>
       </c>
@@ -5274,7 +5273,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>91</v>
       </c>
@@ -5300,7 +5299,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>93</v>
       </c>
@@ -5326,7 +5325,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>95</v>
       </c>
@@ -5352,7 +5351,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>428</v>
       </c>
@@ -5378,7 +5377,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>101</v>
       </c>
@@ -5404,7 +5403,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>103</v>
       </c>
@@ -5430,7 +5429,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>106</v>
       </c>
@@ -5456,7 +5455,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>109</v>
       </c>
@@ -5482,7 +5481,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>112</v>
       </c>
@@ -5508,7 +5507,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>115</v>
       </c>
@@ -5534,7 +5533,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>117</v>
       </c>
@@ -5560,7 +5559,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>119</v>
       </c>
@@ -5586,7 +5585,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>121</v>
       </c>
@@ -5612,7 +5611,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>123</v>
       </c>
@@ -5638,7 +5637,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>125</v>
       </c>
@@ -5664,7 +5663,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>127</v>
       </c>
@@ -5690,7 +5689,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>129</v>
       </c>
@@ -5716,7 +5715,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>131</v>
       </c>
@@ -5742,7 +5741,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>133</v>
       </c>
@@ -5768,7 +5767,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>135</v>
       </c>
@@ -5794,7 +5793,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>137</v>
       </c>
@@ -5820,7 +5819,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>139</v>
       </c>
@@ -5846,7 +5845,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>141</v>
       </c>
@@ -5872,7 +5871,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>143</v>
       </c>
@@ -5898,7 +5897,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>145</v>
       </c>
@@ -5924,7 +5923,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>147</v>
       </c>
@@ -5950,7 +5949,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>149</v>
       </c>
@@ -5976,7 +5975,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>151</v>
       </c>
@@ -6002,7 +6001,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>153</v>
       </c>
@@ -6028,7 +6027,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>155</v>
       </c>
@@ -6054,7 +6053,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>157</v>
       </c>
@@ -6080,7 +6079,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>159</v>
       </c>
@@ -6106,7 +6105,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>161</v>
       </c>
@@ -6132,7 +6131,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>163</v>
       </c>
@@ -6158,7 +6157,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>165</v>
       </c>
@@ -6184,7 +6183,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>167</v>
       </c>
@@ -6210,7 +6209,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>169</v>
       </c>
@@ -6236,7 +6235,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>171</v>
       </c>
@@ -6262,7 +6261,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>174</v>
       </c>
@@ -6288,7 +6287,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>504</v>
       </c>
@@ -6314,7 +6313,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>178</v>
       </c>
@@ -6340,7 +6339,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>180</v>
       </c>
@@ -6366,7 +6365,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>182</v>
       </c>
@@ -6392,7 +6391,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>184</v>
       </c>
@@ -6418,7 +6417,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>186</v>
       </c>
@@ -6444,7 +6443,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>188</v>
       </c>
@@ -6470,7 +6469,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>190</v>
       </c>
@@ -6496,7 +6495,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>192</v>
       </c>
@@ -6522,7 +6521,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>194</v>
       </c>
@@ -6548,7 +6547,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>196</v>
       </c>
@@ -6574,7 +6573,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>198</v>
       </c>
@@ -6600,7 +6599,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>200</v>
       </c>
@@ -6626,7 +6625,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>202</v>
       </c>
@@ -6652,7 +6651,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>204</v>
       </c>
@@ -6678,7 +6677,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>206</v>
       </c>
@@ -6704,7 +6703,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>538</v>
       </c>
@@ -6730,7 +6729,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>210</v>
       </c>
@@ -6756,7 +6755,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>212</v>
       </c>
@@ -6782,7 +6781,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>214</v>
       </c>
@@ -6808,7 +6807,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>216</v>
       </c>
@@ -6834,7 +6833,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>218</v>
       </c>
@@ -6860,7 +6859,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>220</v>
       </c>
@@ -6886,7 +6885,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>222</v>
       </c>
@@ -6912,7 +6911,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>224</v>
       </c>
@@ -6938,7 +6937,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>226</v>
       </c>
@@ -6964,7 +6963,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>228</v>
       </c>
@@ -6990,7 +6989,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>230</v>
       </c>
@@ -7016,7 +7015,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>232</v>
       </c>
@@ -7042,7 +7041,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>234</v>
       </c>
@@ -7068,7 +7067,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>237</v>
       </c>
@@ -7094,7 +7093,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>239</v>
       </c>
@@ -7120,7 +7119,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>241</v>
       </c>
@@ -7146,7 +7145,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>243</v>
       </c>
@@ -7172,7 +7171,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>245</v>
       </c>
@@ -7198,7 +7197,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>247</v>
       </c>
@@ -7224,7 +7223,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>249</v>
       </c>
@@ -7250,7 +7249,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>251</v>
       </c>
@@ -7276,7 +7275,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>253</v>
       </c>
@@ -7302,7 +7301,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>255</v>
       </c>
@@ -7328,7 +7327,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>257</v>
       </c>
@@ -7354,7 +7353,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>176</v>
       </c>
@@ -7380,7 +7379,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>261</v>
       </c>
@@ -7406,7 +7405,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>263</v>
       </c>
@@ -7432,7 +7431,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>265</v>
       </c>
@@ -7458,7 +7457,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>267</v>
       </c>
@@ -7484,7 +7483,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>269</v>
       </c>
@@ -7510,7 +7509,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>271</v>
       </c>
@@ -7536,7 +7535,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>273</v>
       </c>
@@ -7562,7 +7561,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>275</v>
       </c>
@@ -7588,7 +7587,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>277</v>
       </c>
@@ -7614,7 +7613,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>279</v>
       </c>
@@ -7640,7 +7639,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>281</v>
       </c>
@@ -7666,7 +7665,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>283</v>
       </c>
@@ -7692,7 +7691,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>285</v>
       </c>
@@ -7718,7 +7717,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>287</v>
       </c>
@@ -7744,7 +7743,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>289</v>
       </c>
@@ -7770,7 +7769,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>291</v>
       </c>
@@ -7796,7 +7795,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>293</v>
       </c>
@@ -7822,7 +7821,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>295</v>
       </c>
@@ -7848,7 +7847,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>297</v>
       </c>
@@ -7874,7 +7873,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>299</v>
       </c>
@@ -7900,7 +7899,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>301</v>
       </c>
@@ -7926,7 +7925,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>303</v>
       </c>
@@ -7952,7 +7951,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>305</v>
       </c>
@@ -7978,7 +7977,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>307</v>
       </c>
@@ -8004,7 +8003,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>309</v>
       </c>
@@ -8030,7 +8029,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>587</v>
       </c>
@@ -8056,7 +8055,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>313</v>
       </c>
@@ -8082,7 +8081,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>315</v>
       </c>
@@ -8108,7 +8107,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>317</v>
       </c>
@@ -8134,7 +8133,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>319</v>
       </c>
@@ -8160,7 +8159,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>321</v>
       </c>
@@ -8186,7 +8185,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>323</v>
       </c>
@@ -8212,7 +8211,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>325</v>
       </c>
@@ -8238,7 +8237,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>327</v>
       </c>
@@ -8264,7 +8263,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>329</v>
       </c>
@@ -8290,7 +8289,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>331</v>
       </c>
@@ -8316,7 +8315,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>333</v>
       </c>
@@ -8342,7 +8341,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>335</v>
       </c>
@@ -8368,7 +8367,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>337</v>
       </c>
@@ -8394,7 +8393,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>339</v>
       </c>
@@ -8420,7 +8419,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>341</v>
       </c>
@@ -8446,7 +8445,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>343</v>
       </c>
@@ -8472,7 +8471,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>345</v>
       </c>
@@ -8498,7 +8497,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>347</v>
       </c>
@@ -8524,7 +8523,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>349</v>
       </c>
@@ -8550,7 +8549,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>351</v>
       </c>
@@ -8576,7 +8575,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>353</v>
       </c>
@@ -8602,7 +8601,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>355</v>
       </c>
@@ -8628,7 +8627,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>357</v>
       </c>
@@ -8654,7 +8653,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>359</v>
       </c>
@@ -8680,7 +8679,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>362</v>
       </c>
@@ -8706,7 +8705,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>364</v>
       </c>
@@ -8732,7 +8731,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>366</v>
       </c>
@@ -8758,7 +8757,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>368</v>
       </c>
@@ -8784,7 +8783,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>370</v>
       </c>
@@ -8810,7 +8809,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>372</v>
       </c>
@@ -8836,7 +8835,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>374</v>
       </c>
@@ -8862,7 +8861,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>376</v>
       </c>
@@ -8888,7 +8887,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>378</v>
       </c>
@@ -8914,7 +8913,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>557</v>
       </c>
@@ -8940,7 +8939,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>382</v>
       </c>
@@ -8966,7 +8965,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>384</v>
       </c>
@@ -8992,7 +8991,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>386</v>
       </c>
@@ -9018,7 +9017,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>388</v>
       </c>
@@ -9044,7 +9043,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>390</v>
       </c>
@@ -9070,7 +9069,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>392</v>
       </c>
@@ -9096,7 +9095,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>394</v>
       </c>
@@ -9122,7 +9121,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>396</v>
       </c>
@@ -9148,7 +9147,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>398</v>
       </c>
@@ -9174,7 +9173,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>400</v>
       </c>
@@ -9200,7 +9199,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>402</v>
       </c>
@@ -9226,7 +9225,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>404</v>
       </c>
@@ -9252,7 +9251,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>406</v>
       </c>
@@ -9278,7 +9277,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>408</v>
       </c>
@@ -9304,7 +9303,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>410</v>
       </c>
@@ -9330,7 +9329,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>412</v>
       </c>
@@ -9356,7 +9355,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>414</v>
       </c>
@@ -9382,7 +9381,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>416</v>
       </c>
@@ -9408,7 +9407,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>418</v>
       </c>
@@ -9434,7 +9433,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>420</v>
       </c>
@@ -9460,7 +9459,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>422</v>
       </c>
@@ -9486,7 +9485,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>424</v>
       </c>
@@ -9512,7 +9511,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>426</v>
       </c>
@@ -9538,7 +9537,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>907</v>
       </c>
@@ -9564,7 +9563,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>430</v>
       </c>
@@ -9590,7 +9589,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>432</v>
       </c>
@@ -9616,7 +9615,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>434</v>
       </c>
@@ -9642,7 +9641,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>436</v>
       </c>
@@ -9668,7 +9667,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>438</v>
       </c>
@@ -9694,7 +9693,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>440</v>
       </c>
@@ -9720,7 +9719,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>442</v>
       </c>
@@ -9746,7 +9745,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>444</v>
       </c>
@@ -9772,7 +9771,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>446</v>
       </c>
@@ -9798,7 +9797,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>448</v>
       </c>
@@ -9824,7 +9823,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>450</v>
       </c>
@@ -9850,7 +9849,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>452</v>
       </c>
@@ -9876,7 +9875,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>454</v>
       </c>
@@ -9902,7 +9901,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>456</v>
       </c>
@@ -9928,7 +9927,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>458</v>
       </c>
@@ -9954,7 +9953,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>460</v>
       </c>
@@ -9980,7 +9979,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>462</v>
       </c>
@@ -10006,7 +10005,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>464</v>
       </c>
@@ -10032,7 +10031,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>466</v>
       </c>
@@ -10058,7 +10057,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>468</v>
       </c>
@@ -10084,7 +10083,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>470</v>
       </c>
@@ -10110,7 +10109,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>472</v>
       </c>
@@ -10136,7 +10135,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>474</v>
       </c>
@@ -10162,7 +10161,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>476</v>
       </c>
@@ -10188,7 +10187,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>478</v>
       </c>
@@ -10214,7 +10213,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>480</v>
       </c>
@@ -10240,7 +10239,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>482</v>
       </c>
@@ -10266,7 +10265,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>484</v>
       </c>
@@ -10292,7 +10291,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>486</v>
       </c>
@@ -10318,7 +10317,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>488</v>
       </c>
@@ -10344,7 +10343,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>490</v>
       </c>
@@ -10370,7 +10369,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>492</v>
       </c>
@@ -10396,7 +10395,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>494</v>
       </c>
@@ -10422,7 +10421,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>496</v>
       </c>
@@ -10448,7 +10447,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>498</v>
       </c>
@@ -10474,7 +10473,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="234" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>500</v>
       </c>
@@ -10500,7 +10499,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="235" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>502</v>
       </c>
@@ -10526,7 +10525,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>1017</v>
       </c>
@@ -10552,7 +10551,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>506</v>
       </c>
@@ -10578,7 +10577,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>508</v>
       </c>
@@ -10604,7 +10603,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="239" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>510</v>
       </c>
@@ -10630,7 +10629,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>512</v>
       </c>
@@ -10656,7 +10655,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>514</v>
       </c>
@@ -10682,7 +10681,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>516</v>
       </c>
@@ -10708,7 +10707,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>518</v>
       </c>
@@ -10734,7 +10733,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>520</v>
       </c>
@@ -10760,7 +10759,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>522</v>
       </c>
@@ -10786,7 +10785,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>524</v>
       </c>
@@ -10812,7 +10811,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>526</v>
       </c>
@@ -10838,7 +10837,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>528</v>
       </c>
@@ -10864,7 +10863,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>530</v>
       </c>
@@ -10890,7 +10889,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>532</v>
       </c>
@@ -10916,7 +10915,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>534</v>
       </c>
@@ -10942,7 +10941,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>536</v>
       </c>
@@ -10968,7 +10967,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>1171</v>
       </c>
@@ -10994,7 +10993,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>540</v>
       </c>
@@ -11020,7 +11019,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>542</v>
       </c>
@@ -11046,7 +11045,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>544</v>
       </c>
@@ -11072,7 +11071,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>546</v>
       </c>
@@ -11098,7 +11097,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>549</v>
       </c>
@@ -11124,7 +11123,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>551</v>
       </c>
@@ -11150,7 +11149,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>553</v>
       </c>
@@ -11176,7 +11175,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>555</v>
       </c>
@@ -11202,7 +11201,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>208</v>
       </c>
@@ -11228,7 +11227,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>559</v>
       </c>
@@ -11254,7 +11253,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>561</v>
       </c>
@@ -11280,7 +11279,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>563</v>
       </c>
@@ -11306,7 +11305,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>565</v>
       </c>
@@ -11332,7 +11331,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>567</v>
       </c>
@@ -11358,7 +11357,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="268" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>569</v>
       </c>
@@ -11384,7 +11383,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>571</v>
       </c>
@@ -11410,7 +11409,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>573</v>
       </c>
@@ -11436,7 +11435,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>575</v>
       </c>
@@ -11462,7 +11461,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>577</v>
       </c>
@@ -11488,7 +11487,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>579</v>
       </c>
@@ -11514,7 +11513,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>581</v>
       </c>
@@ -11540,7 +11539,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>583</v>
       </c>
@@ -11566,7 +11565,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="276" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>585</v>
       </c>
@@ -11592,7 +11591,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>911</v>
       </c>
@@ -11618,7 +11617,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>589</v>
       </c>
@@ -11644,7 +11643,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>591</v>
       </c>
@@ -11670,7 +11669,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>593</v>
       </c>
@@ -11696,7 +11695,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>595</v>
       </c>
@@ -11722,7 +11721,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>597</v>
       </c>
@@ -11748,7 +11747,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>599</v>
       </c>
@@ -11774,7 +11773,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>601</v>
       </c>
@@ -11800,7 +11799,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>603</v>
       </c>
@@ -11826,7 +11825,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>605</v>
       </c>
@@ -11852,7 +11851,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>995</v>
       </c>
@@ -11878,7 +11877,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>609</v>
       </c>
@@ -11904,7 +11903,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>611</v>
       </c>
@@ -11930,7 +11929,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="290" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>613</v>
       </c>
@@ -11956,7 +11955,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>615</v>
       </c>
@@ -11982,7 +11981,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>617</v>
       </c>
@@ -12008,7 +12007,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>619</v>
       </c>
@@ -12034,7 +12033,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="294" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>621</v>
       </c>
@@ -12060,7 +12059,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>623</v>
       </c>
@@ -12086,7 +12085,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>1140</v>
       </c>
@@ -12112,7 +12111,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>627</v>
       </c>
@@ -12138,7 +12137,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>629</v>
       </c>
@@ -12164,7 +12163,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>631</v>
       </c>
@@ -12190,7 +12189,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>633</v>
       </c>
@@ -12216,7 +12215,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>635</v>
       </c>
@@ -12242,7 +12241,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>637</v>
       </c>
@@ -12268,7 +12267,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>380</v>
       </c>
@@ -12294,7 +12293,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>641</v>
       </c>
@@ -12320,7 +12319,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>643</v>
       </c>
@@ -12346,7 +12345,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>645</v>
       </c>
@@ -12372,7 +12371,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>647</v>
       </c>
@@ -12398,7 +12397,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>649</v>
       </c>
@@ -12424,7 +12423,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>651</v>
       </c>
@@ -12450,7 +12449,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>653</v>
       </c>
@@ -12476,7 +12475,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>655</v>
       </c>
@@ -12502,7 +12501,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>657</v>
       </c>
@@ -12528,7 +12527,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>659</v>
       </c>
@@ -12554,7 +12553,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>661</v>
       </c>
@@ -12580,7 +12579,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>663</v>
       </c>
@@ -12606,7 +12605,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>665</v>
       </c>
@@ -12632,7 +12631,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>667</v>
       </c>
@@ -12658,7 +12657,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>669</v>
       </c>
@@ -12684,7 +12683,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>671</v>
       </c>
@@ -12710,7 +12709,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>673</v>
       </c>
@@ -12736,7 +12735,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>675</v>
       </c>
@@ -12762,7 +12761,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>677</v>
       </c>
@@ -12788,7 +12787,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>679</v>
       </c>
@@ -12814,7 +12813,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>681</v>
       </c>
@@ -12840,7 +12839,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>683</v>
       </c>
@@ -12866,7 +12865,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>685</v>
       </c>
@@ -12892,7 +12891,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>687</v>
       </c>
@@ -12918,7 +12917,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>689</v>
       </c>
@@ -12944,7 +12943,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>691</v>
       </c>
@@ -12970,7 +12969,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>693</v>
       </c>
@@ -12996,7 +12995,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>695</v>
       </c>
@@ -13022,7 +13021,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>697</v>
       </c>
@@ -13048,7 +13047,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>699</v>
       </c>
@@ -13074,7 +13073,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>701</v>
       </c>
@@ -13100,7 +13099,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>703</v>
       </c>
@@ -13126,7 +13125,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>705</v>
       </c>
@@ -13152,7 +13151,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>707</v>
       </c>
@@ -13178,7 +13177,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="338" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>709</v>
       </c>
@@ -13204,7 +13203,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>711</v>
       </c>
@@ -13230,7 +13229,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>713</v>
       </c>
@@ -13256,7 +13255,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>715</v>
       </c>
@@ -13282,7 +13281,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>717</v>
       </c>
@@ -13308,7 +13307,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>719</v>
       </c>
@@ -13334,7 +13333,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>721</v>
       </c>
@@ -13360,7 +13359,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>723</v>
       </c>
@@ -13386,7 +13385,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="346" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>725</v>
       </c>
@@ -13412,7 +13411,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>727</v>
       </c>
@@ -13438,7 +13437,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>729</v>
       </c>
@@ -13464,7 +13463,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>625</v>
       </c>
@@ -13490,7 +13489,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>733</v>
       </c>
@@ -13516,7 +13515,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="351" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>735</v>
       </c>
@@ -13542,7 +13541,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>737</v>
       </c>
@@ -13568,7 +13567,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>739</v>
       </c>
@@ -13594,7 +13593,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>741</v>
       </c>
@@ -13620,7 +13619,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="355" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>743</v>
       </c>
@@ -13646,7 +13645,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>745</v>
       </c>
@@ -13672,7 +13671,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="357" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>747</v>
       </c>
@@ -13698,7 +13697,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>749</v>
       </c>
@@ -13724,7 +13723,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>751</v>
       </c>
@@ -13750,7 +13749,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>753</v>
       </c>
@@ -13776,7 +13775,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>755</v>
       </c>
@@ -13802,7 +13801,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>757</v>
       </c>
@@ -13828,7 +13827,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="363" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>759</v>
       </c>
@@ -13854,7 +13853,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>761</v>
       </c>
@@ -13880,7 +13879,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="365" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>763</v>
       </c>
@@ -13906,7 +13905,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="366" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>765</v>
       </c>
@@ -13932,7 +13931,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="367" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>767</v>
       </c>
@@ -13958,7 +13957,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="368" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>769</v>
       </c>
@@ -13984,7 +13983,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="369" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>771</v>
       </c>
@@ -14010,7 +14009,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="370" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>773</v>
       </c>
@@ -14036,7 +14035,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="371" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>775</v>
       </c>
@@ -14062,7 +14061,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="372" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>777</v>
       </c>
@@ -14088,7 +14087,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="373" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>779</v>
       </c>
@@ -14114,7 +14113,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="374" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>781</v>
       </c>
@@ -14140,7 +14139,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="375" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>783</v>
       </c>
@@ -14166,7 +14165,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>785</v>
       </c>
@@ -14192,7 +14191,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>787</v>
       </c>
@@ -14218,7 +14217,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>789</v>
       </c>
@@ -14244,7 +14243,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>791</v>
       </c>
@@ -14270,7 +14269,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="380" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>793</v>
       </c>
@@ -14296,7 +14295,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>795</v>
       </c>
@@ -14322,7 +14321,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>797</v>
       </c>
@@ -14348,7 +14347,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>799</v>
       </c>
@@ -14374,7 +14373,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>801</v>
       </c>
@@ -14400,7 +14399,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="385" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>803</v>
       </c>
@@ -14426,7 +14425,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="386" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>805</v>
       </c>
@@ -14452,7 +14451,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="387" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>807</v>
       </c>
@@ -14478,7 +14477,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="388" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>809</v>
       </c>
@@ -14504,7 +14503,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="389" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>811</v>
       </c>
@@ -14530,7 +14529,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="390" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>813</v>
       </c>
@@ -14556,7 +14555,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="391" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>815</v>
       </c>
@@ -14582,7 +14581,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="392" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>817</v>
       </c>
@@ -14608,7 +14607,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>819</v>
       </c>
@@ -14634,7 +14633,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>821</v>
       </c>
@@ -14660,7 +14659,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="395" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>823</v>
       </c>
@@ -14686,7 +14685,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="396" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>825</v>
       </c>
@@ -14712,7 +14711,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="397" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>827</v>
       </c>
@@ -14738,7 +14737,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="398" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>829</v>
       </c>
@@ -14764,7 +14763,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="399" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>831</v>
       </c>
@@ -14790,7 +14789,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="400" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>833</v>
       </c>
@@ -14816,7 +14815,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="401" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>835</v>
       </c>
@@ -14842,7 +14841,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>837</v>
       </c>
@@ -14868,7 +14867,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>839</v>
       </c>
@@ -14894,7 +14893,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="404" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>841</v>
       </c>
@@ -14920,7 +14919,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="405" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>843</v>
       </c>
@@ -14946,7 +14945,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="406" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>845</v>
       </c>
@@ -14972,7 +14971,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="407" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>847</v>
       </c>
@@ -14998,7 +14997,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="408" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>849</v>
       </c>
@@ -15024,7 +15023,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="409" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>851</v>
       </c>
@@ -15050,7 +15049,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="410" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>853</v>
       </c>
@@ -15076,7 +15075,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="411" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>855</v>
       </c>
@@ -15102,7 +15101,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="412" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>857</v>
       </c>
@@ -15128,7 +15127,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="413" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>859</v>
       </c>
@@ -15154,7 +15153,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="414" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>861</v>
       </c>
@@ -15180,7 +15179,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="415" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>863</v>
       </c>
@@ -15206,7 +15205,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="416" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>865</v>
       </c>
@@ -15232,7 +15231,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="417" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>867</v>
       </c>
@@ -15258,7 +15257,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>869</v>
       </c>
@@ -15284,7 +15283,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="419" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>871</v>
       </c>
@@ -15310,7 +15309,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="420" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>873</v>
       </c>
@@ -15336,7 +15335,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="421" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>875</v>
       </c>
@@ -15362,7 +15361,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="422" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>877</v>
       </c>
@@ -15388,7 +15387,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="423" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>731</v>
       </c>
@@ -15414,7 +15413,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="424" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>881</v>
       </c>
@@ -15440,7 +15439,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="425" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>883</v>
       </c>
@@ -15466,7 +15465,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="426" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>885</v>
       </c>
@@ -15492,7 +15491,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>887</v>
       </c>
@@ -15518,7 +15517,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="428" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>889</v>
       </c>
@@ -15544,7 +15543,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="429" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>891</v>
       </c>
@@ -15570,7 +15569,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="430" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>893</v>
       </c>
@@ -15596,7 +15595,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="431" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>895</v>
       </c>
@@ -15622,7 +15621,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="432" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>897</v>
       </c>
@@ -15648,7 +15647,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="433" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>899</v>
       </c>
@@ -15674,7 +15673,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="434" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>901</v>
       </c>
@@ -15700,7 +15699,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="435" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>903</v>
       </c>
@@ -15726,7 +15725,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="436" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>905</v>
       </c>
@@ -15752,7 +15751,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="437" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>98</v>
       </c>
@@ -15778,7 +15777,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>909</v>
       </c>
@@ -15804,7 +15803,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="439" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>639</v>
       </c>
@@ -15830,7 +15829,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>913</v>
       </c>
@@ -15856,7 +15855,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="441" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>915</v>
       </c>
@@ -15882,7 +15881,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="442" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>917</v>
       </c>
@@ -15908,7 +15907,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="443" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>919</v>
       </c>
@@ -15934,7 +15933,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="444" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>921</v>
       </c>
@@ -15960,7 +15959,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="445" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>923</v>
       </c>
@@ -15986,7 +15985,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="446" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>925</v>
       </c>
@@ -16012,7 +16011,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="447" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>927</v>
       </c>
@@ -16038,7 +16037,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="448" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>929</v>
       </c>
@@ -16064,7 +16063,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="449" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>931</v>
       </c>
@@ -16090,7 +16089,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="450" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>933</v>
       </c>
@@ -16116,7 +16115,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="451" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>935</v>
       </c>
@@ -16142,7 +16141,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="452" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>937</v>
       </c>
@@ -16168,7 +16167,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="453" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>939</v>
       </c>
@@ -16194,7 +16193,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="454" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>941</v>
       </c>
@@ -16220,7 +16219,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="455" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>943</v>
       </c>
@@ -16246,7 +16245,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="456" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>945</v>
       </c>
@@ -16272,7 +16271,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="457" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>947</v>
       </c>
@@ -16298,7 +16297,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="458" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>949</v>
       </c>
@@ -16324,7 +16323,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>951</v>
       </c>
@@ -16350,7 +16349,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="460" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>953</v>
       </c>
@@ -16376,7 +16375,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="461" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>955</v>
       </c>
@@ -16402,7 +16401,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="462" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>957</v>
       </c>
@@ -16428,7 +16427,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>959</v>
       </c>
@@ -16454,7 +16453,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="464" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>961</v>
       </c>
@@ -16480,7 +16479,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="465" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>963</v>
       </c>
@@ -16506,7 +16505,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="466" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>965</v>
       </c>
@@ -16532,7 +16531,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>967</v>
       </c>
@@ -16558,7 +16557,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="468" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>969</v>
       </c>
@@ -16584,7 +16583,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>971</v>
       </c>
@@ -16610,7 +16609,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="470" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>973</v>
       </c>
@@ -16636,7 +16635,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>975</v>
       </c>
@@ -16662,7 +16661,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>977</v>
       </c>
@@ -16688,7 +16687,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="473" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>979</v>
       </c>
@@ -16714,7 +16713,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="474" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>981</v>
       </c>
@@ -16740,7 +16739,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="475" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>983</v>
       </c>
@@ -16766,7 +16765,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>985</v>
       </c>
@@ -16792,7 +16791,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="477" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>987</v>
       </c>
@@ -16818,7 +16817,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="478" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>989</v>
       </c>
@@ -16844,7 +16843,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="479" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>991</v>
       </c>
@@ -16870,7 +16869,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="480" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>993</v>
       </c>
@@ -16896,7 +16895,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="481" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>607</v>
       </c>
@@ -16922,7 +16921,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="482" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>997</v>
       </c>
@@ -16948,7 +16947,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>999</v>
       </c>
@@ -16974,7 +16973,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="484" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>1001</v>
       </c>
@@ -17000,7 +16999,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="485" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>1003</v>
       </c>
@@ -17026,7 +17025,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="486" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>1005</v>
       </c>
@@ -17052,7 +17051,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>1007</v>
       </c>
@@ -17078,7 +17077,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="488" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>1009</v>
       </c>
@@ -17104,7 +17103,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="489" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>1011</v>
       </c>
@@ -17130,7 +17129,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="490" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>1013</v>
       </c>
@@ -17156,7 +17155,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="491" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>1015</v>
       </c>
@@ -17182,7 +17181,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="492" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>879</v>
       </c>
@@ -17208,7 +17207,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="493" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>1019</v>
       </c>
@@ -17234,7 +17233,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="494" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>1021</v>
       </c>
@@ -17260,7 +17259,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="495" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>1023</v>
       </c>
@@ -17286,7 +17285,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="496" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>1025</v>
       </c>
@@ -17312,7 +17311,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="497" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>1027</v>
       </c>
@@ -17338,7 +17337,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="498" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>1029</v>
       </c>
@@ -17364,7 +17363,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="499" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>1031</v>
       </c>
@@ -17390,7 +17389,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="500" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>1031</v>
       </c>
@@ -17416,7 +17415,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>1034</v>
       </c>
@@ -17442,7 +17441,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="502" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>1036</v>
       </c>
@@ -17468,7 +17467,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="503" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>1038</v>
       </c>
@@ -17494,7 +17493,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="504" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>1040</v>
       </c>
@@ -17520,7 +17519,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>1042</v>
       </c>
@@ -17546,7 +17545,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="506" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>1044</v>
       </c>
@@ -17572,7 +17571,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="507" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>1046</v>
       </c>
@@ -17598,7 +17597,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="508" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>1048</v>
       </c>
@@ -17624,7 +17623,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="509" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>1050</v>
       </c>
@@ -17650,7 +17649,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="510" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>1052</v>
       </c>
@@ -17676,7 +17675,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="511" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>1054</v>
       </c>
@@ -17702,7 +17701,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="512" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>1056</v>
       </c>
@@ -17728,7 +17727,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="513" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>1058</v>
       </c>
@@ -17754,7 +17753,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="514" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>1060</v>
       </c>
@@ -17780,7 +17779,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="515" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>1062</v>
       </c>
@@ -17806,7 +17805,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="516" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>1064</v>
       </c>
@@ -17832,7 +17831,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="517" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>1066</v>
       </c>
@@ -17858,7 +17857,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="518" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>1068</v>
       </c>
@@ -17884,7 +17883,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>1070</v>
       </c>
@@ -17910,7 +17909,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="520" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>1072</v>
       </c>
@@ -17936,7 +17935,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="521" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>1074</v>
       </c>
@@ -17962,7 +17961,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="522" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>1076</v>
       </c>
@@ -17988,7 +17987,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="523" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>1078</v>
       </c>
@@ -18014,7 +18013,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="524" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>1080</v>
       </c>
@@ -18040,7 +18039,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>1082</v>
       </c>
@@ -18066,7 +18065,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="526" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>1084</v>
       </c>
@@ -18092,7 +18091,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="527" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>1086</v>
       </c>
@@ -18118,7 +18117,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="528" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>1088</v>
       </c>
@@ -18144,7 +18143,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="529" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>1090</v>
       </c>
@@ -18170,7 +18169,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="530" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>1092</v>
       </c>
@@ -18196,7 +18195,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="531" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>1094</v>
       </c>
@@ -18222,7 +18221,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>1096</v>
       </c>
@@ -18248,7 +18247,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="533" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>1098</v>
       </c>
@@ -18274,7 +18273,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="534" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>1100</v>
       </c>
@@ -18300,7 +18299,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="535" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>1102</v>
       </c>
@@ -18326,7 +18325,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>1104</v>
       </c>
@@ -18352,7 +18351,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>1106</v>
       </c>
@@ -18378,7 +18377,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="538" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>1108</v>
       </c>
@@ -18404,7 +18403,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="539" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>1110</v>
       </c>
@@ -18430,7 +18429,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="540" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>1112</v>
       </c>
@@ -18456,7 +18455,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="541" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>1114</v>
       </c>
@@ -18482,7 +18481,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="542" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>1116</v>
       </c>
@@ -18508,7 +18507,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="543" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>1118</v>
       </c>
@@ -18534,7 +18533,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>1120</v>
       </c>
@@ -18560,7 +18559,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="545" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>1122</v>
       </c>
@@ -18586,7 +18585,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="546" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>1124</v>
       </c>
@@ -18612,7 +18611,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="547" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>1126</v>
       </c>
@@ -18638,7 +18637,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="548" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>1128</v>
       </c>
@@ -18664,7 +18663,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="549" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>1130</v>
       </c>
@@ -18690,7 +18689,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="550" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>1132</v>
       </c>
@@ -18716,7 +18715,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="551" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>1134</v>
       </c>
@@ -18742,7 +18741,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="552" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>1136</v>
       </c>
@@ -18768,7 +18767,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>1138</v>
       </c>
@@ -18794,7 +18793,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="554" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>259</v>
       </c>
@@ -18820,7 +18819,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="555" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>1142</v>
       </c>
@@ -18846,7 +18845,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="556" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>1144</v>
       </c>
@@ -18872,7 +18871,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="557" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>1144</v>
       </c>
@@ -18898,7 +18897,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="558" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>1147</v>
       </c>
@@ -18924,7 +18923,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="559" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>1149</v>
       </c>
@@ -18950,7 +18949,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="560" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>1151</v>
       </c>
@@ -18976,7 +18975,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="561" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>1153</v>
       </c>
@@ -19002,7 +19001,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="562" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>1155</v>
       </c>
@@ -19028,7 +19027,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="563" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>1157</v>
       </c>
@@ -19054,7 +19053,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="564" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>1159</v>
       </c>
@@ -19080,7 +19079,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="565" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>1161</v>
       </c>
@@ -19106,7 +19105,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="566" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>1163</v>
       </c>
@@ -19132,7 +19131,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="567" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>1165</v>
       </c>
@@ -19158,7 +19157,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="568" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>1167</v>
       </c>
@@ -19184,7 +19183,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="569" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>1169</v>
       </c>
@@ -19210,7 +19209,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="570" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>311</v>
       </c>
@@ -19236,7 +19235,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="571" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>1173</v>
       </c>
@@ -19262,7 +19261,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="572" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>1175</v>
       </c>
@@ -19289,13 +19288,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H572" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:H572">
     <filterColumn colId="1">
       <filters>
         <filter val="RS"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A102:H562">
+    <sortState ref="A102:H562">
       <sortCondition ref="A1:A572"/>
     </sortState>
   </autoFilter>
@@ -19304,26 +19303,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -19349,7 +19348,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>98</v>
       </c>
@@ -19375,7 +19374,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>176</v>
       </c>
@@ -19401,7 +19400,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>208</v>
       </c>
@@ -19427,7 +19426,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>259</v>
       </c>
@@ -19453,7 +19452,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>311</v>
       </c>
@@ -19479,7 +19478,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>368</v>
       </c>
@@ -19505,7 +19504,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>380</v>
       </c>
@@ -19531,7 +19530,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>428</v>
       </c>
@@ -19557,7 +19556,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>504</v>
       </c>
@@ -19583,7 +19582,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>538</v>
       </c>
@@ -19609,7 +19608,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>557</v>
       </c>
@@ -19635,7 +19634,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>587</v>
       </c>
@@ -19661,7 +19660,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>607</v>
       </c>
@@ -19687,7 +19686,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>625</v>
       </c>
@@ -19713,7 +19712,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>639</v>
       </c>
@@ -19739,7 +19738,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>731</v>
       </c>
@@ -19765,7 +19764,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>879</v>
       </c>
@@ -19791,7 +19790,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>907</v>
       </c>
@@ -19817,7 +19816,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>911</v>
       </c>
@@ -19843,7 +19842,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>995</v>
       </c>
@@ -19869,7 +19868,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1017</v>
       </c>
@@ -19895,7 +19894,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1140</v>
       </c>
@@ -19921,7 +19920,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1171</v>
       </c>
@@ -19948,8 +19947,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H24">
+  <autoFilter ref="A1:H1">
+    <sortState ref="A2:H24">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>

--- a/estacoes.xlsx
+++ b/estacoes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Catalogo" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2392" uniqueCount="1177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2396" uniqueCount="1177">
   <si>
     <t>DC_NOME</t>
   </si>
@@ -4399,8 +4399,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H572"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D489" sqref="D489"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A209" sqref="A209:XFD209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4675,7 +4675,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>123</v>
       </c>
@@ -6183,7 +6183,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>167</v>
       </c>
@@ -6729,7 +6729,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>210</v>
       </c>
@@ -6911,7 +6911,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>224</v>
       </c>
@@ -6963,7 +6963,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>228</v>
       </c>
@@ -7041,7 +7041,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>234</v>
       </c>
@@ -7119,7 +7119,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>241</v>
       </c>
@@ -7405,7 +7405,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>263</v>
       </c>
@@ -7431,7 +7431,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>265</v>
       </c>
@@ -7483,7 +7483,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>269</v>
       </c>
@@ -7873,7 +7873,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>299</v>
       </c>
@@ -8055,7 +8055,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>313</v>
       </c>
@@ -8081,7 +8081,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>315</v>
       </c>
@@ -8185,7 +8185,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>323</v>
       </c>
@@ -8601,7 +8601,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>355</v>
       </c>
@@ -8731,7 +8731,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>366</v>
       </c>
@@ -8835,7 +8835,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>374</v>
       </c>
@@ -8965,7 +8965,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>384</v>
       </c>
@@ -9017,7 +9017,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>388</v>
       </c>
@@ -9225,7 +9225,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>404</v>
       </c>
@@ -9277,7 +9277,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>408</v>
       </c>
@@ -9667,7 +9667,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>438</v>
       </c>
@@ -9719,7 +9719,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>442</v>
       </c>
@@ -9823,7 +9823,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>450</v>
       </c>
@@ -9953,7 +9953,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>460</v>
       </c>
@@ -10291,7 +10291,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>486</v>
       </c>
@@ -10369,7 +10369,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>492</v>
       </c>
@@ -10499,7 +10499,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="235" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>502</v>
       </c>
@@ -11253,7 +11253,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>561</v>
       </c>
@@ -11331,7 +11331,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>567</v>
       </c>
@@ -11487,7 +11487,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>579</v>
       </c>
@@ -11669,7 +11669,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>593</v>
       </c>
@@ -11903,7 +11903,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>611</v>
       </c>
@@ -11929,7 +11929,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="290" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>613</v>
       </c>
@@ -12293,7 +12293,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>641</v>
       </c>
@@ -12657,7 +12657,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>669</v>
       </c>
@@ -13047,7 +13047,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>699</v>
       </c>
@@ -13125,7 +13125,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>705</v>
       </c>
@@ -13281,7 +13281,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>717</v>
       </c>
@@ -13359,7 +13359,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>723</v>
       </c>
@@ -13775,7 +13775,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>755</v>
       </c>
@@ -13957,7 +13957,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="368" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>769</v>
       </c>
@@ -14191,7 +14191,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>787</v>
       </c>
@@ -14711,7 +14711,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="397" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>827</v>
       </c>
@@ -14867,7 +14867,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>839</v>
       </c>
@@ -15257,7 +15257,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>869</v>
       </c>
@@ -15777,7 +15777,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>909</v>
       </c>
@@ -15829,7 +15829,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>913</v>
       </c>
@@ -16323,7 +16323,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>951</v>
       </c>
@@ -16427,7 +16427,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>959</v>
       </c>
@@ -16531,7 +16531,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>967</v>
       </c>
@@ -16583,7 +16583,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>971</v>
       </c>
@@ -16635,7 +16635,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>975</v>
       </c>
@@ -16661,7 +16661,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>977</v>
       </c>
@@ -16765,7 +16765,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>985</v>
       </c>
@@ -16947,7 +16947,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>999</v>
       </c>
@@ -17051,7 +17051,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>1007</v>
       </c>
@@ -17103,7 +17103,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="489" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>1011</v>
       </c>
@@ -17415,7 +17415,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>1034</v>
       </c>
@@ -17519,7 +17519,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>1042</v>
       </c>
@@ -17883,7 +17883,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>1070</v>
       </c>
@@ -18039,7 +18039,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>1082</v>
       </c>
@@ -18221,7 +18221,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>1096</v>
       </c>
@@ -18325,7 +18325,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>1104</v>
       </c>
@@ -18351,7 +18351,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>1106</v>
       </c>
@@ -18533,7 +18533,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>1120</v>
       </c>
@@ -18767,7 +18767,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>1138</v>
       </c>
@@ -18819,7 +18819,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>1142</v>
       </c>
@@ -19001,7 +19001,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="562" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>1155</v>
       </c>
@@ -19291,7 +19291,7 @@
   <autoFilter ref="A1:H572">
     <filterColumn colId="1">
       <filters>
-        <filter val="RS"/>
+        <filter val="PR"/>
       </filters>
     </filterColumn>
     <sortState ref="A102:H562">
@@ -19304,10 +19304,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19946,6 +19946,32 @@
         <v>1172</v>
       </c>
     </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>450</v>
+      </c>
+      <c r="B25" t="s">
+        <v>235</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25">
+        <v>-26.3986111</v>
+      </c>
+      <c r="E25">
+        <v>-51.353611110000003</v>
+      </c>
+      <c r="F25">
+        <v>1009.01</v>
+      </c>
+      <c r="G25" s="1">
+        <v>39567</v>
+      </c>
+      <c r="H25" t="s">
+        <v>451</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H1">
     <sortState ref="A2:H24">

--- a/estacoes.xlsx
+++ b/estacoes.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ufscbr-my.sharepoint.com/personal/joao_tolentino_ufsc_br/Documents/GitLab/boletim_inmet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\devgit\boletim_inmet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:40009_{B0A3EF54-74A4-4B64-A1C7-0D8C8771194F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4772EE9-4178-46DF-8EE9-07207502F84F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="CatalogoEstaçõesAutomáticas" sheetId="1" r:id="rId1"/>
+    <sheet name="Catalogo" sheetId="1" r:id="rId1"/>
     <sheet name="SC" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CatalogoEstaçõesAutomáticas!$A$1:$H$572</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Catalogo!$A$1:$H$572</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SC!$A$1:$H$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2392" uniqueCount="1177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2396" uniqueCount="1177">
   <si>
     <t>DC_NOME</t>
   </si>
@@ -3561,7 +3560,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4073,10 +4072,10 @@
     <cellStyle name="Ênfase5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Ênfase6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Incorreto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Neutra" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Ruim" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texto de Aviso" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto Explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
@@ -4396,27 +4395,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H572"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="D489" sqref="D489"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A209" sqref="A209:XFD209"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4442,7 +4441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -4468,7 +4467,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -4494,7 +4493,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -4520,7 +4519,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -4546,7 +4545,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -4572,7 +4571,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -4598,7 +4597,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -4624,7 +4623,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -4650,7 +4649,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -4676,7 +4675,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -4702,7 +4701,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -4728,7 +4727,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -4754,7 +4753,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -4780,7 +4779,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -4806,7 +4805,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -4832,7 +4831,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -4858,7 +4857,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -4884,7 +4883,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -4910,7 +4909,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -4936,7 +4935,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>60</v>
       </c>
@@ -4962,7 +4961,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>63</v>
       </c>
@@ -4988,7 +4987,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -5014,7 +5013,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>67</v>
       </c>
@@ -5040,7 +5039,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>69</v>
       </c>
@@ -5066,7 +5065,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>72</v>
       </c>
@@ -5092,7 +5091,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>74</v>
       </c>
@@ -5118,7 +5117,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -5144,7 +5143,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>80</v>
       </c>
@@ -5170,7 +5169,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>82</v>
       </c>
@@ -5196,7 +5195,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>85</v>
       </c>
@@ -5222,7 +5221,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>87</v>
       </c>
@@ -5248,7 +5247,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>89</v>
       </c>
@@ -5274,7 +5273,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>91</v>
       </c>
@@ -5300,7 +5299,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>93</v>
       </c>
@@ -5326,7 +5325,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>95</v>
       </c>
@@ -5352,7 +5351,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>428</v>
       </c>
@@ -5378,7 +5377,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>101</v>
       </c>
@@ -5404,7 +5403,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>103</v>
       </c>
@@ -5430,7 +5429,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>106</v>
       </c>
@@ -5456,7 +5455,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>109</v>
       </c>
@@ -5482,7 +5481,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>112</v>
       </c>
@@ -5508,7 +5507,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>115</v>
       </c>
@@ -5534,7 +5533,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>117</v>
       </c>
@@ -5560,7 +5559,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>119</v>
       </c>
@@ -5586,7 +5585,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>121</v>
       </c>
@@ -5612,7 +5611,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>123</v>
       </c>
@@ -5638,7 +5637,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>125</v>
       </c>
@@ -5664,7 +5663,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>127</v>
       </c>
@@ -5690,7 +5689,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>129</v>
       </c>
@@ -5716,7 +5715,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>131</v>
       </c>
@@ -5742,7 +5741,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>133</v>
       </c>
@@ -5768,7 +5767,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>135</v>
       </c>
@@ -5794,7 +5793,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>137</v>
       </c>
@@ -5820,7 +5819,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>139</v>
       </c>
@@ -5846,7 +5845,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>141</v>
       </c>
@@ -5872,7 +5871,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>143</v>
       </c>
@@ -5898,7 +5897,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>145</v>
       </c>
@@ -5924,7 +5923,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>147</v>
       </c>
@@ -5950,7 +5949,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>149</v>
       </c>
@@ -5976,7 +5975,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>151</v>
       </c>
@@ -6002,7 +6001,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>153</v>
       </c>
@@ -6028,7 +6027,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>155</v>
       </c>
@@ -6054,7 +6053,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>157</v>
       </c>
@@ -6080,7 +6079,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>159</v>
       </c>
@@ -6106,7 +6105,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>161</v>
       </c>
@@ -6132,7 +6131,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>163</v>
       </c>
@@ -6158,7 +6157,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>165</v>
       </c>
@@ -6184,7 +6183,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>167</v>
       </c>
@@ -6210,7 +6209,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>169</v>
       </c>
@@ -6236,7 +6235,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>171</v>
       </c>
@@ -6262,7 +6261,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>174</v>
       </c>
@@ -6288,7 +6287,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>504</v>
       </c>
@@ -6314,7 +6313,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>178</v>
       </c>
@@ -6340,7 +6339,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>180</v>
       </c>
@@ -6366,7 +6365,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>182</v>
       </c>
@@ -6392,7 +6391,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>184</v>
       </c>
@@ -6418,7 +6417,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>186</v>
       </c>
@@ -6444,7 +6443,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>188</v>
       </c>
@@ -6470,7 +6469,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>190</v>
       </c>
@@ -6496,7 +6495,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>192</v>
       </c>
@@ -6522,7 +6521,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>194</v>
       </c>
@@ -6548,7 +6547,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>196</v>
       </c>
@@ -6574,7 +6573,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>198</v>
       </c>
@@ -6600,7 +6599,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>200</v>
       </c>
@@ -6626,7 +6625,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>202</v>
       </c>
@@ -6652,7 +6651,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>204</v>
       </c>
@@ -6678,7 +6677,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>206</v>
       </c>
@@ -6704,7 +6703,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>538</v>
       </c>
@@ -6730,7 +6729,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>210</v>
       </c>
@@ -6756,7 +6755,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>212</v>
       </c>
@@ -6782,7 +6781,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>214</v>
       </c>
@@ -6808,7 +6807,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>216</v>
       </c>
@@ -6834,7 +6833,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>218</v>
       </c>
@@ -6860,7 +6859,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>220</v>
       </c>
@@ -6886,7 +6885,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>222</v>
       </c>
@@ -6912,7 +6911,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>224</v>
       </c>
@@ -6938,7 +6937,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>226</v>
       </c>
@@ -6964,7 +6963,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>228</v>
       </c>
@@ -6990,7 +6989,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>230</v>
       </c>
@@ -7016,7 +7015,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>232</v>
       </c>
@@ -7042,7 +7041,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>234</v>
       </c>
@@ -7068,7 +7067,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>237</v>
       </c>
@@ -7094,7 +7093,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>239</v>
       </c>
@@ -7120,7 +7119,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>241</v>
       </c>
@@ -7146,7 +7145,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>243</v>
       </c>
@@ -7172,7 +7171,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>245</v>
       </c>
@@ -7198,7 +7197,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>247</v>
       </c>
@@ -7224,7 +7223,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>249</v>
       </c>
@@ -7250,7 +7249,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>251</v>
       </c>
@@ -7276,7 +7275,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>253</v>
       </c>
@@ -7302,7 +7301,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>255</v>
       </c>
@@ -7328,7 +7327,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>257</v>
       </c>
@@ -7354,7 +7353,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>176</v>
       </c>
@@ -7380,7 +7379,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>261</v>
       </c>
@@ -7406,7 +7405,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>263</v>
       </c>
@@ -7432,7 +7431,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>265</v>
       </c>
@@ -7458,7 +7457,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>267</v>
       </c>
@@ -7484,7 +7483,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>269</v>
       </c>
@@ -7510,7 +7509,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>271</v>
       </c>
@@ -7536,7 +7535,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>273</v>
       </c>
@@ -7562,7 +7561,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>275</v>
       </c>
@@ -7588,7 +7587,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>277</v>
       </c>
@@ -7614,7 +7613,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>279</v>
       </c>
@@ -7640,7 +7639,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>281</v>
       </c>
@@ -7666,7 +7665,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>283</v>
       </c>
@@ -7692,7 +7691,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>285</v>
       </c>
@@ -7718,7 +7717,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>287</v>
       </c>
@@ -7744,7 +7743,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>289</v>
       </c>
@@ -7770,7 +7769,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>291</v>
       </c>
@@ -7796,7 +7795,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>293</v>
       </c>
@@ -7822,7 +7821,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>295</v>
       </c>
@@ -7848,7 +7847,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>297</v>
       </c>
@@ -7874,7 +7873,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>299</v>
       </c>
@@ -7900,7 +7899,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>301</v>
       </c>
@@ -7926,7 +7925,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>303</v>
       </c>
@@ -7952,7 +7951,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>305</v>
       </c>
@@ -7978,7 +7977,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>307</v>
       </c>
@@ -8004,7 +8003,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>309</v>
       </c>
@@ -8030,7 +8029,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>587</v>
       </c>
@@ -8056,7 +8055,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>313</v>
       </c>
@@ -8082,7 +8081,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>315</v>
       </c>
@@ -8108,7 +8107,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>317</v>
       </c>
@@ -8134,7 +8133,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>319</v>
       </c>
@@ -8160,7 +8159,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>321</v>
       </c>
@@ -8186,7 +8185,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>323</v>
       </c>
@@ -8212,7 +8211,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>325</v>
       </c>
@@ -8238,7 +8237,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>327</v>
       </c>
@@ -8264,7 +8263,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>329</v>
       </c>
@@ -8290,7 +8289,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>331</v>
       </c>
@@ -8316,7 +8315,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>333</v>
       </c>
@@ -8342,7 +8341,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>335</v>
       </c>
@@ -8368,7 +8367,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>337</v>
       </c>
@@ -8394,7 +8393,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>339</v>
       </c>
@@ -8420,7 +8419,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>341</v>
       </c>
@@ -8446,7 +8445,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>343</v>
       </c>
@@ -8472,7 +8471,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>345</v>
       </c>
@@ -8498,7 +8497,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>347</v>
       </c>
@@ -8524,7 +8523,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>349</v>
       </c>
@@ -8550,7 +8549,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>351</v>
       </c>
@@ -8576,7 +8575,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>353</v>
       </c>
@@ -8602,7 +8601,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>355</v>
       </c>
@@ -8628,7 +8627,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>357</v>
       </c>
@@ -8654,7 +8653,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>359</v>
       </c>
@@ -8680,7 +8679,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>362</v>
       </c>
@@ -8706,7 +8705,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>364</v>
       </c>
@@ -8732,7 +8731,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>366</v>
       </c>
@@ -8758,7 +8757,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>368</v>
       </c>
@@ -8784,7 +8783,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>370</v>
       </c>
@@ -8810,7 +8809,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>372</v>
       </c>
@@ -8836,7 +8835,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>374</v>
       </c>
@@ -8862,7 +8861,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>376</v>
       </c>
@@ -8888,7 +8887,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>378</v>
       </c>
@@ -8914,7 +8913,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>557</v>
       </c>
@@ -8940,7 +8939,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>382</v>
       </c>
@@ -8966,7 +8965,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>384</v>
       </c>
@@ -8992,7 +8991,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>386</v>
       </c>
@@ -9018,7 +9017,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>388</v>
       </c>
@@ -9044,7 +9043,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>390</v>
       </c>
@@ -9070,7 +9069,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>392</v>
       </c>
@@ -9096,7 +9095,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>394</v>
       </c>
@@ -9122,7 +9121,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>396</v>
       </c>
@@ -9148,7 +9147,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>398</v>
       </c>
@@ -9174,7 +9173,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>400</v>
       </c>
@@ -9200,7 +9199,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>402</v>
       </c>
@@ -9226,7 +9225,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>404</v>
       </c>
@@ -9252,7 +9251,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>406</v>
       </c>
@@ -9278,7 +9277,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>408</v>
       </c>
@@ -9304,7 +9303,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>410</v>
       </c>
@@ -9330,7 +9329,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>412</v>
       </c>
@@ -9356,7 +9355,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>414</v>
       </c>
@@ -9382,7 +9381,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>416</v>
       </c>
@@ -9408,7 +9407,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>418</v>
       </c>
@@ -9434,7 +9433,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>420</v>
       </c>
@@ -9460,7 +9459,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>422</v>
       </c>
@@ -9486,7 +9485,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>424</v>
       </c>
@@ -9512,7 +9511,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>426</v>
       </c>
@@ -9538,7 +9537,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>907</v>
       </c>
@@ -9564,7 +9563,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>430</v>
       </c>
@@ -9590,7 +9589,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>432</v>
       </c>
@@ -9616,7 +9615,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>434</v>
       </c>
@@ -9642,7 +9641,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>436</v>
       </c>
@@ -9668,7 +9667,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>438</v>
       </c>
@@ -9694,7 +9693,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>440</v>
       </c>
@@ -9720,7 +9719,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>442</v>
       </c>
@@ -9746,7 +9745,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>444</v>
       </c>
@@ -9772,7 +9771,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>446</v>
       </c>
@@ -9798,7 +9797,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>448</v>
       </c>
@@ -9824,7 +9823,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>450</v>
       </c>
@@ -9850,7 +9849,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>452</v>
       </c>
@@ -9876,7 +9875,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>454</v>
       </c>
@@ -9902,7 +9901,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>456</v>
       </c>
@@ -9928,7 +9927,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>458</v>
       </c>
@@ -9954,7 +9953,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>460</v>
       </c>
@@ -9980,7 +9979,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>462</v>
       </c>
@@ -10006,7 +10005,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>464</v>
       </c>
@@ -10032,7 +10031,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>466</v>
       </c>
@@ -10058,7 +10057,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>468</v>
       </c>
@@ -10084,7 +10083,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>470</v>
       </c>
@@ -10110,7 +10109,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>472</v>
       </c>
@@ -10136,7 +10135,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>474</v>
       </c>
@@ -10162,7 +10161,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>476</v>
       </c>
@@ -10188,7 +10187,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>478</v>
       </c>
@@ -10214,7 +10213,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>480</v>
       </c>
@@ -10240,7 +10239,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>482</v>
       </c>
@@ -10266,7 +10265,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>484</v>
       </c>
@@ -10292,7 +10291,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>486</v>
       </c>
@@ -10318,7 +10317,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>488</v>
       </c>
@@ -10344,7 +10343,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>490</v>
       </c>
@@ -10370,7 +10369,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>492</v>
       </c>
@@ -10396,7 +10395,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>494</v>
       </c>
@@ -10422,7 +10421,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>496</v>
       </c>
@@ -10448,7 +10447,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>498</v>
       </c>
@@ -10474,7 +10473,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="234" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>500</v>
       </c>
@@ -10500,7 +10499,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="235" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>502</v>
       </c>
@@ -10526,7 +10525,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>1017</v>
       </c>
@@ -10552,7 +10551,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>506</v>
       </c>
@@ -10578,7 +10577,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>508</v>
       </c>
@@ -10604,7 +10603,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="239" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>510</v>
       </c>
@@ -10630,7 +10629,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>512</v>
       </c>
@@ -10656,7 +10655,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>514</v>
       </c>
@@ -10682,7 +10681,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>516</v>
       </c>
@@ -10708,7 +10707,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>518</v>
       </c>
@@ -10734,7 +10733,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>520</v>
       </c>
@@ -10760,7 +10759,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>522</v>
       </c>
@@ -10786,7 +10785,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>524</v>
       </c>
@@ -10812,7 +10811,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>526</v>
       </c>
@@ -10838,7 +10837,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>528</v>
       </c>
@@ -10864,7 +10863,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>530</v>
       </c>
@@ -10890,7 +10889,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>532</v>
       </c>
@@ -10916,7 +10915,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>534</v>
       </c>
@@ -10942,7 +10941,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>536</v>
       </c>
@@ -10968,7 +10967,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>1171</v>
       </c>
@@ -10994,7 +10993,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>540</v>
       </c>
@@ -11020,7 +11019,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>542</v>
       </c>
@@ -11046,7 +11045,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>544</v>
       </c>
@@ -11072,7 +11071,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>546</v>
       </c>
@@ -11098,7 +11097,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>549</v>
       </c>
@@ -11124,7 +11123,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>551</v>
       </c>
@@ -11150,7 +11149,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>553</v>
       </c>
@@ -11176,7 +11175,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>555</v>
       </c>
@@ -11202,7 +11201,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>208</v>
       </c>
@@ -11228,7 +11227,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>559</v>
       </c>
@@ -11254,7 +11253,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>561</v>
       </c>
@@ -11280,7 +11279,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>563</v>
       </c>
@@ -11306,7 +11305,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>565</v>
       </c>
@@ -11332,7 +11331,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>567</v>
       </c>
@@ -11358,7 +11357,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="268" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>569</v>
       </c>
@@ -11384,7 +11383,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>571</v>
       </c>
@@ -11410,7 +11409,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>573</v>
       </c>
@@ -11436,7 +11435,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>575</v>
       </c>
@@ -11462,7 +11461,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>577</v>
       </c>
@@ -11488,7 +11487,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>579</v>
       </c>
@@ -11514,7 +11513,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>581</v>
       </c>
@@ -11540,7 +11539,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>583</v>
       </c>
@@ -11566,7 +11565,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="276" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>585</v>
       </c>
@@ -11592,7 +11591,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>911</v>
       </c>
@@ -11618,7 +11617,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>589</v>
       </c>
@@ -11644,7 +11643,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>591</v>
       </c>
@@ -11670,7 +11669,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>593</v>
       </c>
@@ -11696,7 +11695,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>595</v>
       </c>
@@ -11722,7 +11721,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>597</v>
       </c>
@@ -11748,7 +11747,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>599</v>
       </c>
@@ -11774,7 +11773,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>601</v>
       </c>
@@ -11800,7 +11799,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>603</v>
       </c>
@@ -11826,7 +11825,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>605</v>
       </c>
@@ -11852,7 +11851,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>995</v>
       </c>
@@ -11878,7 +11877,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>609</v>
       </c>
@@ -11904,7 +11903,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>611</v>
       </c>
@@ -11930,7 +11929,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="290" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>613</v>
       </c>
@@ -11956,7 +11955,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>615</v>
       </c>
@@ -11982,7 +11981,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>617</v>
       </c>
@@ -12008,7 +12007,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>619</v>
       </c>
@@ -12034,7 +12033,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="294" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>621</v>
       </c>
@@ -12060,7 +12059,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>623</v>
       </c>
@@ -12086,7 +12085,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>1140</v>
       </c>
@@ -12112,7 +12111,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>627</v>
       </c>
@@ -12138,7 +12137,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>629</v>
       </c>
@@ -12164,7 +12163,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>631</v>
       </c>
@@ -12190,7 +12189,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>633</v>
       </c>
@@ -12216,7 +12215,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>635</v>
       </c>
@@ -12242,7 +12241,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>637</v>
       </c>
@@ -12268,7 +12267,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>380</v>
       </c>
@@ -12294,7 +12293,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>641</v>
       </c>
@@ -12320,7 +12319,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>643</v>
       </c>
@@ -12346,7 +12345,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>645</v>
       </c>
@@ -12372,7 +12371,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>647</v>
       </c>
@@ -12398,7 +12397,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>649</v>
       </c>
@@ -12424,7 +12423,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>651</v>
       </c>
@@ -12450,7 +12449,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>653</v>
       </c>
@@ -12476,7 +12475,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>655</v>
       </c>
@@ -12502,7 +12501,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>657</v>
       </c>
@@ -12528,7 +12527,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>659</v>
       </c>
@@ -12554,7 +12553,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>661</v>
       </c>
@@ -12580,7 +12579,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>663</v>
       </c>
@@ -12606,7 +12605,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>665</v>
       </c>
@@ -12632,7 +12631,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>667</v>
       </c>
@@ -12658,7 +12657,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>669</v>
       </c>
@@ -12684,7 +12683,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>671</v>
       </c>
@@ -12710,7 +12709,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>673</v>
       </c>
@@ -12736,7 +12735,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>675</v>
       </c>
@@ -12762,7 +12761,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>677</v>
       </c>
@@ -12788,7 +12787,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>679</v>
       </c>
@@ -12814,7 +12813,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>681</v>
       </c>
@@ -12840,7 +12839,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>683</v>
       </c>
@@ -12866,7 +12865,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>685</v>
       </c>
@@ -12892,7 +12891,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>687</v>
       </c>
@@ -12918,7 +12917,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>689</v>
       </c>
@@ -12944,7 +12943,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>691</v>
       </c>
@@ -12970,7 +12969,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>693</v>
       </c>
@@ -12996,7 +12995,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>695</v>
       </c>
@@ -13022,7 +13021,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>697</v>
       </c>
@@ -13048,7 +13047,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>699</v>
       </c>
@@ -13074,7 +13073,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>701</v>
       </c>
@@ -13100,7 +13099,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>703</v>
       </c>
@@ -13126,7 +13125,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>705</v>
       </c>
@@ -13152,7 +13151,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>707</v>
       </c>
@@ -13178,7 +13177,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="338" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>709</v>
       </c>
@@ -13204,7 +13203,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>711</v>
       </c>
@@ -13230,7 +13229,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>713</v>
       </c>
@@ -13256,7 +13255,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>715</v>
       </c>
@@ -13282,7 +13281,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>717</v>
       </c>
@@ -13308,7 +13307,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>719</v>
       </c>
@@ -13334,7 +13333,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>721</v>
       </c>
@@ -13360,7 +13359,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>723</v>
       </c>
@@ -13386,7 +13385,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="346" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>725</v>
       </c>
@@ -13412,7 +13411,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>727</v>
       </c>
@@ -13438,7 +13437,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>729</v>
       </c>
@@ -13464,7 +13463,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>625</v>
       </c>
@@ -13490,7 +13489,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>733</v>
       </c>
@@ -13516,7 +13515,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="351" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>735</v>
       </c>
@@ -13542,7 +13541,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>737</v>
       </c>
@@ -13568,7 +13567,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>739</v>
       </c>
@@ -13594,7 +13593,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>741</v>
       </c>
@@ -13620,7 +13619,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="355" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>743</v>
       </c>
@@ -13646,7 +13645,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>745</v>
       </c>
@@ -13672,7 +13671,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="357" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>747</v>
       </c>
@@ -13698,7 +13697,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>749</v>
       </c>
@@ -13724,7 +13723,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>751</v>
       </c>
@@ -13750,7 +13749,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>753</v>
       </c>
@@ -13776,7 +13775,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>755</v>
       </c>
@@ -13802,7 +13801,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>757</v>
       </c>
@@ -13828,7 +13827,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="363" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>759</v>
       </c>
@@ -13854,7 +13853,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>761</v>
       </c>
@@ -13880,7 +13879,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="365" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>763</v>
       </c>
@@ -13906,7 +13905,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="366" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>765</v>
       </c>
@@ -13932,7 +13931,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="367" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>767</v>
       </c>
@@ -13958,7 +13957,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="368" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>769</v>
       </c>
@@ -13984,7 +13983,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="369" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>771</v>
       </c>
@@ -14010,7 +14009,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="370" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>773</v>
       </c>
@@ -14036,7 +14035,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="371" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>775</v>
       </c>
@@ -14062,7 +14061,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="372" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>777</v>
       </c>
@@ -14088,7 +14087,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="373" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>779</v>
       </c>
@@ -14114,7 +14113,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="374" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>781</v>
       </c>
@@ -14140,7 +14139,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="375" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>783</v>
       </c>
@@ -14166,7 +14165,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>785</v>
       </c>
@@ -14192,7 +14191,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>787</v>
       </c>
@@ -14218,7 +14217,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>789</v>
       </c>
@@ -14244,7 +14243,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>791</v>
       </c>
@@ -14270,7 +14269,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="380" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>793</v>
       </c>
@@ -14296,7 +14295,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>795</v>
       </c>
@@ -14322,7 +14321,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>797</v>
       </c>
@@ -14348,7 +14347,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>799</v>
       </c>
@@ -14374,7 +14373,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>801</v>
       </c>
@@ -14400,7 +14399,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="385" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>803</v>
       </c>
@@ -14426,7 +14425,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="386" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>805</v>
       </c>
@@ -14452,7 +14451,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="387" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>807</v>
       </c>
@@ -14478,7 +14477,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="388" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>809</v>
       </c>
@@ -14504,7 +14503,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="389" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>811</v>
       </c>
@@ -14530,7 +14529,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="390" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>813</v>
       </c>
@@ -14556,7 +14555,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="391" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>815</v>
       </c>
@@ -14582,7 +14581,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="392" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>817</v>
       </c>
@@ -14608,7 +14607,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>819</v>
       </c>
@@ -14634,7 +14633,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>821</v>
       </c>
@@ -14660,7 +14659,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="395" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>823</v>
       </c>
@@ -14686,7 +14685,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="396" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>825</v>
       </c>
@@ -14712,7 +14711,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="397" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>827</v>
       </c>
@@ -14738,7 +14737,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="398" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>829</v>
       </c>
@@ -14764,7 +14763,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="399" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>831</v>
       </c>
@@ -14790,7 +14789,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="400" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>833</v>
       </c>
@@ -14816,7 +14815,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="401" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>835</v>
       </c>
@@ -14842,7 +14841,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>837</v>
       </c>
@@ -14868,7 +14867,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>839</v>
       </c>
@@ -14894,7 +14893,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="404" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>841</v>
       </c>
@@ -14920,7 +14919,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="405" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>843</v>
       </c>
@@ -14946,7 +14945,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="406" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>845</v>
       </c>
@@ -14972,7 +14971,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="407" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>847</v>
       </c>
@@ -14998,7 +14997,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="408" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>849</v>
       </c>
@@ -15024,7 +15023,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="409" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>851</v>
       </c>
@@ -15050,7 +15049,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="410" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>853</v>
       </c>
@@ -15076,7 +15075,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="411" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>855</v>
       </c>
@@ -15102,7 +15101,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="412" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>857</v>
       </c>
@@ -15128,7 +15127,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="413" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>859</v>
       </c>
@@ -15154,7 +15153,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="414" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>861</v>
       </c>
@@ -15180,7 +15179,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="415" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>863</v>
       </c>
@@ -15206,7 +15205,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="416" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>865</v>
       </c>
@@ -15232,7 +15231,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="417" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>867</v>
       </c>
@@ -15258,7 +15257,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>869</v>
       </c>
@@ -15284,7 +15283,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="419" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>871</v>
       </c>
@@ -15310,7 +15309,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="420" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>873</v>
       </c>
@@ -15336,7 +15335,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="421" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>875</v>
       </c>
@@ -15362,7 +15361,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="422" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>877</v>
       </c>
@@ -15388,7 +15387,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="423" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>731</v>
       </c>
@@ -15414,7 +15413,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="424" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>881</v>
       </c>
@@ -15440,7 +15439,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="425" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>883</v>
       </c>
@@ -15466,7 +15465,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="426" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>885</v>
       </c>
@@ -15492,7 +15491,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>887</v>
       </c>
@@ -15518,7 +15517,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="428" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>889</v>
       </c>
@@ -15544,7 +15543,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="429" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>891</v>
       </c>
@@ -15570,7 +15569,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="430" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>893</v>
       </c>
@@ -15596,7 +15595,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="431" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>895</v>
       </c>
@@ -15622,7 +15621,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="432" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>897</v>
       </c>
@@ -15648,7 +15647,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="433" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>899</v>
       </c>
@@ -15674,7 +15673,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="434" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>901</v>
       </c>
@@ -15700,7 +15699,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="435" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>903</v>
       </c>
@@ -15726,7 +15725,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="436" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>905</v>
       </c>
@@ -15752,7 +15751,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="437" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>98</v>
       </c>
@@ -15778,7 +15777,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>909</v>
       </c>
@@ -15804,7 +15803,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="439" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>639</v>
       </c>
@@ -15830,7 +15829,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>913</v>
       </c>
@@ -15856,7 +15855,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="441" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>915</v>
       </c>
@@ -15882,7 +15881,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="442" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>917</v>
       </c>
@@ -15908,7 +15907,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="443" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>919</v>
       </c>
@@ -15934,7 +15933,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="444" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>921</v>
       </c>
@@ -15960,7 +15959,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="445" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>923</v>
       </c>
@@ -15986,7 +15985,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="446" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>925</v>
       </c>
@@ -16012,7 +16011,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="447" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>927</v>
       </c>
@@ -16038,7 +16037,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="448" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>929</v>
       </c>
@@ -16064,7 +16063,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="449" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>931</v>
       </c>
@@ -16090,7 +16089,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="450" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>933</v>
       </c>
@@ -16116,7 +16115,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="451" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>935</v>
       </c>
@@ -16142,7 +16141,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="452" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>937</v>
       </c>
@@ -16168,7 +16167,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="453" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>939</v>
       </c>
@@ -16194,7 +16193,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="454" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>941</v>
       </c>
@@ -16220,7 +16219,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="455" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>943</v>
       </c>
@@ -16246,7 +16245,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="456" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>945</v>
       </c>
@@ -16272,7 +16271,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="457" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>947</v>
       </c>
@@ -16298,7 +16297,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="458" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>949</v>
       </c>
@@ -16324,7 +16323,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>951</v>
       </c>
@@ -16350,7 +16349,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="460" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>953</v>
       </c>
@@ -16376,7 +16375,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="461" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>955</v>
       </c>
@@ -16402,7 +16401,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="462" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>957</v>
       </c>
@@ -16428,7 +16427,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>959</v>
       </c>
@@ -16454,7 +16453,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="464" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>961</v>
       </c>
@@ -16480,7 +16479,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="465" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>963</v>
       </c>
@@ -16506,7 +16505,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="466" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>965</v>
       </c>
@@ -16532,7 +16531,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>967</v>
       </c>
@@ -16558,7 +16557,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="468" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>969</v>
       </c>
@@ -16584,7 +16583,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>971</v>
       </c>
@@ -16610,7 +16609,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="470" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>973</v>
       </c>
@@ -16636,7 +16635,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>975</v>
       </c>
@@ -16662,7 +16661,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>977</v>
       </c>
@@ -16688,7 +16687,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="473" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>979</v>
       </c>
@@ -16714,7 +16713,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="474" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>981</v>
       </c>
@@ -16740,7 +16739,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="475" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>983</v>
       </c>
@@ -16766,7 +16765,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>985</v>
       </c>
@@ -16792,7 +16791,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="477" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>987</v>
       </c>
@@ -16818,7 +16817,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="478" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>989</v>
       </c>
@@ -16844,7 +16843,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="479" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>991</v>
       </c>
@@ -16870,7 +16869,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="480" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>993</v>
       </c>
@@ -16896,7 +16895,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="481" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>607</v>
       </c>
@@ -16922,7 +16921,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="482" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>997</v>
       </c>
@@ -16948,7 +16947,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>999</v>
       </c>
@@ -16974,7 +16973,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="484" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>1001</v>
       </c>
@@ -17000,7 +16999,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="485" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>1003</v>
       </c>
@@ -17026,7 +17025,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="486" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>1005</v>
       </c>
@@ -17052,7 +17051,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>1007</v>
       </c>
@@ -17078,7 +17077,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="488" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>1009</v>
       </c>
@@ -17104,7 +17103,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="489" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>1011</v>
       </c>
@@ -17130,7 +17129,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="490" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>1013</v>
       </c>
@@ -17156,7 +17155,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="491" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>1015</v>
       </c>
@@ -17182,7 +17181,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="492" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>879</v>
       </c>
@@ -17208,7 +17207,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="493" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>1019</v>
       </c>
@@ -17234,7 +17233,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="494" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>1021</v>
       </c>
@@ -17260,7 +17259,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="495" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>1023</v>
       </c>
@@ -17286,7 +17285,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="496" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>1025</v>
       </c>
@@ -17312,7 +17311,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="497" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>1027</v>
       </c>
@@ -17338,7 +17337,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="498" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>1029</v>
       </c>
@@ -17364,7 +17363,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="499" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>1031</v>
       </c>
@@ -17390,7 +17389,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="500" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>1031</v>
       </c>
@@ -17416,7 +17415,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>1034</v>
       </c>
@@ -17442,7 +17441,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="502" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>1036</v>
       </c>
@@ -17468,7 +17467,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="503" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>1038</v>
       </c>
@@ -17494,7 +17493,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="504" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>1040</v>
       </c>
@@ -17520,7 +17519,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>1042</v>
       </c>
@@ -17546,7 +17545,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="506" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>1044</v>
       </c>
@@ -17572,7 +17571,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="507" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>1046</v>
       </c>
@@ -17598,7 +17597,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="508" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>1048</v>
       </c>
@@ -17624,7 +17623,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="509" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>1050</v>
       </c>
@@ -17650,7 +17649,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="510" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>1052</v>
       </c>
@@ -17676,7 +17675,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="511" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>1054</v>
       </c>
@@ -17702,7 +17701,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="512" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>1056</v>
       </c>
@@ -17728,7 +17727,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="513" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>1058</v>
       </c>
@@ -17754,7 +17753,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="514" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>1060</v>
       </c>
@@ -17780,7 +17779,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="515" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>1062</v>
       </c>
@@ -17806,7 +17805,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="516" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>1064</v>
       </c>
@@ -17832,7 +17831,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="517" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>1066</v>
       </c>
@@ -17858,7 +17857,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="518" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>1068</v>
       </c>
@@ -17884,7 +17883,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>1070</v>
       </c>
@@ -17910,7 +17909,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="520" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>1072</v>
       </c>
@@ -17936,7 +17935,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="521" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>1074</v>
       </c>
@@ -17962,7 +17961,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="522" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>1076</v>
       </c>
@@ -17988,7 +17987,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="523" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>1078</v>
       </c>
@@ -18014,7 +18013,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="524" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>1080</v>
       </c>
@@ -18040,7 +18039,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>1082</v>
       </c>
@@ -18066,7 +18065,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="526" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>1084</v>
       </c>
@@ -18092,7 +18091,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="527" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>1086</v>
       </c>
@@ -18118,7 +18117,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="528" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>1088</v>
       </c>
@@ -18144,7 +18143,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="529" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>1090</v>
       </c>
@@ -18170,7 +18169,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="530" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>1092</v>
       </c>
@@ -18196,7 +18195,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="531" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>1094</v>
       </c>
@@ -18222,7 +18221,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>1096</v>
       </c>
@@ -18248,7 +18247,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="533" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>1098</v>
       </c>
@@ -18274,7 +18273,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="534" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>1100</v>
       </c>
@@ -18300,7 +18299,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="535" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>1102</v>
       </c>
@@ -18326,7 +18325,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>1104</v>
       </c>
@@ -18352,7 +18351,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>1106</v>
       </c>
@@ -18378,7 +18377,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="538" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>1108</v>
       </c>
@@ -18404,7 +18403,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="539" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>1110</v>
       </c>
@@ -18430,7 +18429,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="540" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>1112</v>
       </c>
@@ -18456,7 +18455,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="541" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>1114</v>
       </c>
@@ -18482,7 +18481,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="542" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>1116</v>
       </c>
@@ -18508,7 +18507,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="543" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>1118</v>
       </c>
@@ -18534,7 +18533,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>1120</v>
       </c>
@@ -18560,7 +18559,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="545" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>1122</v>
       </c>
@@ -18586,7 +18585,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="546" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>1124</v>
       </c>
@@ -18612,7 +18611,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="547" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>1126</v>
       </c>
@@ -18638,7 +18637,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="548" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>1128</v>
       </c>
@@ -18664,7 +18663,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="549" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>1130</v>
       </c>
@@ -18690,7 +18689,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="550" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>1132</v>
       </c>
@@ -18716,7 +18715,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="551" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>1134</v>
       </c>
@@ -18742,7 +18741,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="552" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>1136</v>
       </c>
@@ -18768,7 +18767,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>1138</v>
       </c>
@@ -18794,7 +18793,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="554" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>259</v>
       </c>
@@ -18820,7 +18819,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="555" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>1142</v>
       </c>
@@ -18846,7 +18845,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="556" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>1144</v>
       </c>
@@ -18872,7 +18871,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="557" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>1144</v>
       </c>
@@ -18898,7 +18897,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="558" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>1147</v>
       </c>
@@ -18924,7 +18923,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="559" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>1149</v>
       </c>
@@ -18950,7 +18949,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="560" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>1151</v>
       </c>
@@ -18976,7 +18975,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="561" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>1153</v>
       </c>
@@ -19002,7 +19001,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="562" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>1155</v>
       </c>
@@ -19028,7 +19027,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="563" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>1157</v>
       </c>
@@ -19054,7 +19053,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="564" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>1159</v>
       </c>
@@ -19080,7 +19079,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="565" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>1161</v>
       </c>
@@ -19106,7 +19105,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="566" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>1163</v>
       </c>
@@ -19132,7 +19131,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="567" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>1165</v>
       </c>
@@ -19158,7 +19157,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="568" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>1167</v>
       </c>
@@ -19184,7 +19183,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="569" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>1169</v>
       </c>
@@ -19210,7 +19209,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="570" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>311</v>
       </c>
@@ -19236,7 +19235,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="571" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>1173</v>
       </c>
@@ -19262,7 +19261,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="572" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>1175</v>
       </c>
@@ -19289,13 +19288,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H572" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:H572">
     <filterColumn colId="1">
       <filters>
-        <filter val="RS"/>
+        <filter val="PR"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A102:H562">
+    <sortState ref="A102:H562">
       <sortCondition ref="A1:A572"/>
     </sortState>
   </autoFilter>
@@ -19304,26 +19303,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -19349,7 +19348,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>98</v>
       </c>
@@ -19375,7 +19374,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>176</v>
       </c>
@@ -19401,7 +19400,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>208</v>
       </c>
@@ -19427,7 +19426,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>259</v>
       </c>
@@ -19453,7 +19452,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>311</v>
       </c>
@@ -19479,7 +19478,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>368</v>
       </c>
@@ -19505,7 +19504,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>380</v>
       </c>
@@ -19531,7 +19530,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>428</v>
       </c>
@@ -19557,7 +19556,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>504</v>
       </c>
@@ -19583,7 +19582,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>538</v>
       </c>
@@ -19609,7 +19608,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>557</v>
       </c>
@@ -19635,7 +19634,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>587</v>
       </c>
@@ -19661,7 +19660,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>607</v>
       </c>
@@ -19687,7 +19686,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>625</v>
       </c>
@@ -19713,7 +19712,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>639</v>
       </c>
@@ -19739,7 +19738,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>731</v>
       </c>
@@ -19765,7 +19764,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>879</v>
       </c>
@@ -19791,7 +19790,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>907</v>
       </c>
@@ -19817,7 +19816,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>911</v>
       </c>
@@ -19843,7 +19842,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>995</v>
       </c>
@@ -19869,7 +19868,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1017</v>
       </c>
@@ -19895,7 +19894,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1140</v>
       </c>
@@ -19921,7 +19920,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1171</v>
       </c>
@@ -19947,9 +19946,35 @@
         <v>1172</v>
       </c>
     </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>450</v>
+      </c>
+      <c r="B25" t="s">
+        <v>235</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25">
+        <v>-26.3986111</v>
+      </c>
+      <c r="E25">
+        <v>-51.353611110000003</v>
+      </c>
+      <c r="F25">
+        <v>1009.01</v>
+      </c>
+      <c r="G25" s="1">
+        <v>39567</v>
+      </c>
+      <c r="H25" t="s">
+        <v>451</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H24">
+  <autoFilter ref="A1:H1">
+    <sortState ref="A2:H24">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
